--- a/(DeadPool) Assets.xlsx
+++ b/(DeadPool) Assets.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Ui Overlay Assets" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Hero Assets'!$A$1:$O$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Hero Assets'!$A$1:$O$122</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="289">
   <si>
     <t>Bundle ID</t>
   </si>
@@ -885,6 +885,18 @@
   </si>
   <si>
     <t>Icons/CatalystIconWater-R6.png</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to </t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -7891,11 +7903,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7977,86 +7989,42 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16" thickBot="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:28" s="8" customFormat="1">
+      <c r="A2" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:28" ht="16" thickBot="1">
+      <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="12" t="str">
-        <f t="shared" ref="B2" si="0">IF(M2="Static","r1_Dark_Knight_e1",A2)</f>
+      <c r="B3" s="12" t="str">
+        <f t="shared" ref="B3" si="0">IF(M3="Static","r1_Dark_Knight_e1",A3)</f>
         <v>r1_Dark_Scavenger_e1</v>
       </c>
-      <c r="C2" s="6" t="str">
-        <f>RIGHT(LEFT(A2,FIND("_",A2,4)-1),LEN(LEFT(A2,FIND("_",A2,4)-1))-3)</f>
-        <v>Dark</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="36" t="str">
-        <f>IF(M2="Done",LOWER("hero-bundle-"&amp;B2),"hero-bundle-placeholder")</f>
-        <v>hero-bundle-r1_dark_scavenger_e1</v>
-      </c>
-      <c r="G2" s="36" t="str">
-        <f t="shared" ref="G2" si="1">CONCATENATE("Heroes/",B2, "/", B2,  "_Avatar.png")</f>
-        <v>Heroes/r1_Dark_Scavenger_e1/r1_Dark_Scavenger_e1_Avatar.png</v>
-      </c>
-      <c r="H2" s="36" t="str">
-        <f t="shared" ref="H2" si="2">CONCATENATE("Heroes/",B2, "/", B2,  "_BurnMap.png")</f>
-        <v>Heroes/r1_Dark_Scavenger_e1/r1_Dark_Scavenger_e1_BurnMap.png</v>
-      </c>
-      <c r="I2" s="36" t="str">
-        <f t="shared" ref="I2" si="3">CONCATENATE("Heroes/",B2, "/", B2,  "_SkeletonData.asset")</f>
-        <v>Heroes/r1_Dark_Scavenger_e1/r1_Dark_Scavenger_e1_SkeletonData.asset</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" t="str">
-        <f t="shared" ref="N2:N64" si="4">IF(B2=A2,"","No")</f>
-        <v/>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="21"/>
-      <c r="X2" t="str">
-        <f t="shared" ref="X2:X33" si="5">IFERROR(INDEX(T$5:T$10,MATCH($A2,$S$5:$S$10,0)),D2)</f>
-        <v>hero-card-4</v>
-      </c>
-      <c r="Y2" t="str">
-        <f t="shared" ref="Y2:Y33" si="6">IFERROR(INDEX(U$5:U$10,MATCH($A2,$S$5:$S$10,0)),F2)</f>
-        <v>hero-bundle-r1_dark_scavenger_e1</v>
-      </c>
-      <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA65" si="7">IF(X2=D2,"","CHG")</f>
-        <v/>
-      </c>
-      <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB65" si="8">IF(Y2=F2,"","CHG")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="16" thickTop="1">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="12" t="str">
-        <f>IF(M3="Static","r1_Dark_Knight_e1",A3)</f>
-        <v>r1_Dark_Scavenger_e2</v>
-      </c>
       <c r="C3" s="6" t="str">
-        <f t="shared" ref="C3:C66" si="9">RIGHT(LEFT(A3,FIND("_",A3,4)-1),LEN(LEFT(A3,FIND("_",A3,4)-1))-3)</f>
+        <f>RIGHT(LEFT(A3,FIND("_",A3,4)-1),LEN(LEFT(A3,FIND("_",A3,4)-1))-3)</f>
         <v>Dark</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -8066,72 +8034,68 @@
         <v>213</v>
       </c>
       <c r="F3" s="36" t="str">
-        <f t="shared" ref="F3:F66" si="10">IF(M3="Done",LOWER("hero-bundle-"&amp;B3),"hero-bundle-placeholder")</f>
-        <v>hero-bundle-r1_dark_scavenger_e2</v>
-      </c>
-      <c r="G3" s="37" t="str">
-        <f t="shared" ref="G3:G66" si="11">CONCATENATE("Heroes/",B3, "/", B3,  "_Avatar.png")</f>
-        <v>Heroes/r1_Dark_Scavenger_e2/r1_Dark_Scavenger_e2_Avatar.png</v>
-      </c>
-      <c r="H3" s="37" t="str">
-        <f t="shared" ref="H3:H66" si="12">CONCATENATE("Heroes/",B3, "/", B3,  "_BurnMap.png")</f>
-        <v>Heroes/r1_Dark_Scavenger_e2/r1_Dark_Scavenger_e2_BurnMap.png</v>
-      </c>
-      <c r="I3" s="37" t="str">
-        <f t="shared" ref="I3:I66" si="13">CONCATENATE("Heroes/",B3, "/", B3,  "_SkeletonData.asset")</f>
-        <v>Heroes/r1_Dark_Scavenger_e2/r1_Dark_Scavenger_e2_SkeletonData.asset</v>
+        <f>IF(M3="Done",LOWER("hero-bundle-"&amp;B3),"hero-bundle-placeholder")</f>
+        <v>hero-bundle-r1_dark_scavenger_e1</v>
+      </c>
+      <c r="G3" s="36" t="str">
+        <f t="shared" ref="G3" si="1">CONCATENATE("Heroes/",B3, "/", B3,  "_Avatar.png")</f>
+        <v>Heroes/r1_Dark_Scavenger_e1/r1_Dark_Scavenger_e1_Avatar.png</v>
+      </c>
+      <c r="H3" s="36" t="str">
+        <f t="shared" ref="H3" si="2">CONCATENATE("Heroes/",B3, "/", B3,  "_BurnMap.png")</f>
+        <v>Heroes/r1_Dark_Scavenger_e1/r1_Dark_Scavenger_e1_BurnMap.png</v>
+      </c>
+      <c r="I3" s="36" t="str">
+        <f t="shared" ref="I3" si="3">CONCATENATE("Heroes/",B3, "/", B3,  "_SkeletonData.asset")</f>
+        <v>Heroes/r1_Dark_Scavenger_e1/r1_Dark_Scavenger_e1_SkeletonData.asset</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="31">
-        <f>COUNTIF(M:M,O3)</f>
-        <v>80</v>
-      </c>
-      <c r="Q3" s="20"/>
-      <c r="S3" s="8" t="s">
-        <v>48</v>
-      </c>
+        <f t="shared" ref="N3:N65" si="4">IF(B3=A3,"","No")</f>
+        <v/>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="21"/>
       <c r="X3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="X3:X34" si="5">IFERROR(INDEX(T$6:T$11,MATCH($A3,$S$6:$S$11,0)),D3)</f>
         <v>hero-card-4</v>
       </c>
       <c r="Y3" t="str">
-        <f t="shared" si="6"/>
-        <v>hero-bundle-r1_dark_scavenger_e2</v>
+        <f t="shared" ref="Y3:Y34" si="6">IFERROR(INDEX(U$6:U$11,MATCH($A3,$S$6:$S$11,0)),F3)</f>
+        <v>hero-bundle-r1_dark_scavenger_e1</v>
       </c>
       <c r="AA3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AA3:AA66" si="7">IF(X3=D3,"","CHG")</f>
         <v/>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <f t="shared" ref="AB3:AB66" si="8">IF(Y3=F3,"","CHG")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16" thickTop="1">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4" s="12" t="str">
-        <f t="shared" ref="B4:B67" si="14">IF(M4="Static","r1_Dark_Knight_e1",A4)</f>
-        <v>r1_Fire_Huntress_e1</v>
+        <f>IF(M4="Static","r1_Dark_Knight_e1",A4)</f>
+        <v>r1_Dark_Scavenger_e2</v>
       </c>
       <c r="C4" s="6" t="str">
-        <f t="shared" si="9"/>
-        <v>Fire</v>
+        <f t="shared" ref="C4:C67" si="9">RIGHT(LEFT(A4,FIND("_",A4,4)-1),LEN(LEFT(A4,FIND("_",A4,4)-1))-3)</f>
+        <v>Dark</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>129</v>
@@ -8140,24 +8104,24 @@
         <v>213</v>
       </c>
       <c r="F4" s="36" t="str">
-        <f t="shared" si="10"/>
-        <v>hero-bundle-r1_fire_huntress_e1</v>
-      </c>
-      <c r="G4" s="36" t="str">
-        <f t="shared" si="11"/>
-        <v>Heroes/r1_Fire_Huntress_e1/r1_Fire_Huntress_e1_Avatar.png</v>
-      </c>
-      <c r="H4" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v>Heroes/r1_Fire_Huntress_e1/r1_Fire_Huntress_e1_BurnMap.png</v>
-      </c>
-      <c r="I4" s="36" t="str">
-        <f t="shared" si="13"/>
-        <v>Heroes/r1_Fire_Huntress_e1/r1_Fire_Huntress_e1_SkeletonData.asset</v>
+        <f t="shared" ref="F4:F67" si="10">IF(M4="Done",LOWER("hero-bundle-"&amp;B4),"hero-bundle-placeholder")</f>
+        <v>hero-bundle-r1_dark_scavenger_e2</v>
+      </c>
+      <c r="G4" s="37" t="str">
+        <f t="shared" ref="G4:G67" si="11">CONCATENATE("Heroes/",B4, "/", B4,  "_Avatar.png")</f>
+        <v>Heroes/r1_Dark_Scavenger_e2/r1_Dark_Scavenger_e2_Avatar.png</v>
+      </c>
+      <c r="H4" s="37" t="str">
+        <f t="shared" ref="H4:H67" si="12">CONCATENATE("Heroes/",B4, "/", B4,  "_BurnMap.png")</f>
+        <v>Heroes/r1_Dark_Scavenger_e2/r1_Dark_Scavenger_e2_BurnMap.png</v>
+      </c>
+      <c r="I4" s="37" t="str">
+        <f t="shared" ref="I4:I67" si="13">CONCATENATE("Heroes/",B4, "/", B4,  "_SkeletonData.asset")</f>
+        <v>Heroes/r1_Dark_Scavenger_e2/r1_Dark_Scavenger_e2_SkeletonData.asset</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="8" t="s">
@@ -8167,34 +8131,24 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="29">
+      <c r="O4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="31">
         <f>COUNTIF(M:M,O4)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="20"/>
-      <c r="S4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="W4" s="15"/>
+      <c r="S4" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="X4" t="str">
         <f t="shared" si="5"/>
         <v>hero-card-4</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_fire_huntress_e1</v>
+        <v>hero-bundle-r1_dark_scavenger_e2</v>
       </c>
       <c r="AA4" t="str">
         <f t="shared" si="7"/>
@@ -8207,11 +8161,11 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v>r1_Fire_Huntress_e2</v>
+        <f t="shared" ref="B5:B68" si="14">IF(M5="Static","r1_Dark_Knight_e1",A5)</f>
+        <v>r1_Fire_Huntress_e1</v>
       </c>
       <c r="C5" s="6" t="str">
         <f t="shared" si="9"/>
@@ -8225,23 +8179,23 @@
       </c>
       <c r="F5" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_fire_huntress_e2</v>
+        <v>hero-bundle-r1_fire_huntress_e1</v>
       </c>
       <c r="G5" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Fire_Huntress_e2/r1_Fire_Huntress_e2_Avatar.png</v>
+        <v>Heroes/r1_Fire_Huntress_e1/r1_Fire_Huntress_e1_Avatar.png</v>
       </c>
       <c r="H5" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Fire_Huntress_e2/r1_Fire_Huntress_e2_BurnMap.png</v>
+        <v>Heroes/r1_Fire_Huntress_e1/r1_Fire_Huntress_e1_BurnMap.png</v>
       </c>
       <c r="I5" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Fire_Huntress_e2/r1_Fire_Huntress_e2_SkeletonData.asset</v>
+        <v>Heroes/r1_Fire_Huntress_e1/r1_Fire_Huntress_e1_SkeletonData.asset</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="8" t="s">
@@ -8252,23 +8206,25 @@
         <v/>
       </c>
       <c r="O5" s="32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P5" s="29">
         <f>COUNTIF(M:M,O5)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="20"/>
-      <c r="S5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5" s="6"/>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="W5" s="15"/>
       <c r="X5" t="str">
         <f t="shared" si="5"/>
@@ -8276,7 +8232,7 @@
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_fire_huntress_e2</v>
+        <v>hero-bundle-r1_fire_huntress_e1</v>
       </c>
       <c r="AA5" t="str">
         <f t="shared" si="7"/>
@@ -8289,11 +8245,11 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Fire_Sorceress_e1</v>
+        <v>r1_Fire_Huntress_e2</v>
       </c>
       <c r="C6" s="6" t="str">
         <f t="shared" si="9"/>
@@ -8307,23 +8263,23 @@
       </c>
       <c r="F6" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_fire_sorceress_e1</v>
+        <v>hero-bundle-r1_fire_huntress_e2</v>
       </c>
       <c r="G6" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Fire_Sorceress_e1/r1_Fire_Sorceress_e1_Avatar.png</v>
+        <v>Heroes/r1_Fire_Huntress_e2/r1_Fire_Huntress_e2_Avatar.png</v>
       </c>
       <c r="H6" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Fire_Sorceress_e1/r1_Fire_Sorceress_e1_BurnMap.png</v>
+        <v>Heroes/r1_Fire_Huntress_e2/r1_Fire_Huntress_e2_BurnMap.png</v>
       </c>
       <c r="I6" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Fire_Sorceress_e1/r1_Fire_Sorceress_e1_SkeletonData.asset</v>
+        <v>Heroes/r1_Fire_Huntress_e2/r1_Fire_Huntress_e2_SkeletonData.asset</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="8" t="s">
@@ -8333,16 +8289,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O6" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="34">
-        <f>SUM(P3:P4)</f>
-        <v>80</v>
+      <c r="O6" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="29">
+        <f>COUNTIF(M:M,O6)</f>
+        <v>0</v>
       </c>
       <c r="Q6" s="20"/>
       <c r="S6" s="16" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>26</v>
@@ -8358,7 +8314,7 @@
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_fire_sorceress_e1</v>
+        <v>hero-bundle-r1_fire_huntress_e2</v>
       </c>
       <c r="AA6" t="str">
         <f t="shared" si="7"/>
@@ -8371,11 +8327,11 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Fire_Sorceress_e2</v>
+        <v>r1_Fire_Sorceress_e1</v>
       </c>
       <c r="C7" s="6" t="str">
         <f t="shared" si="9"/>
@@ -8389,23 +8345,23 @@
       </c>
       <c r="F7" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_fire_sorceress_e2</v>
+        <v>hero-bundle-r1_fire_sorceress_e1</v>
       </c>
       <c r="G7" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Fire_Sorceress_e2/r1_Fire_Sorceress_e2_Avatar.png</v>
+        <v>Heroes/r1_Fire_Sorceress_e1/r1_Fire_Sorceress_e1_Avatar.png</v>
       </c>
       <c r="H7" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Fire_Sorceress_e2/r1_Fire_Sorceress_e2_BurnMap.png</v>
+        <v>Heroes/r1_Fire_Sorceress_e1/r1_Fire_Sorceress_e1_BurnMap.png</v>
       </c>
       <c r="I7" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Fire_Sorceress_e2/r1_Fire_Sorceress_e2_SkeletonData.asset</v>
+        <v>Heroes/r1_Fire_Sorceress_e1/r1_Fire_Sorceress_e1_SkeletonData.asset</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="8" t="s">
@@ -8415,8 +8371,16 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="O7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="34">
+        <f>SUM(P4:P5)</f>
+        <v>80</v>
+      </c>
+      <c r="Q7" s="20"/>
       <c r="S7" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="T7" s="17" t="s">
         <v>26</v>
@@ -8432,7 +8396,7 @@
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_fire_sorceress_e2</v>
+        <v>hero-bundle-r1_fire_sorceress_e1</v>
       </c>
       <c r="AA7" t="str">
         <f t="shared" si="7"/>
@@ -8445,11 +8409,11 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Fire_Sorceress_e3</v>
+        <v>r1_Fire_Sorceress_e2</v>
       </c>
       <c r="C8" s="6" t="str">
         <f t="shared" si="9"/>
@@ -8463,23 +8427,23 @@
       </c>
       <c r="F8" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_fire_sorceress_e3</v>
+        <v>hero-bundle-r1_fire_sorceress_e2</v>
       </c>
       <c r="G8" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Fire_Sorceress_e3/r1_Fire_Sorceress_e3_Avatar.png</v>
+        <v>Heroes/r1_Fire_Sorceress_e2/r1_Fire_Sorceress_e2_Avatar.png</v>
       </c>
       <c r="H8" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Fire_Sorceress_e3/r1_Fire_Sorceress_e3_BurnMap.png</v>
+        <v>Heroes/r1_Fire_Sorceress_e2/r1_Fire_Sorceress_e2_BurnMap.png</v>
       </c>
       <c r="I8" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Fire_Sorceress_e3/r1_Fire_Sorceress_e3_SkeletonData.asset</v>
+        <v>Heroes/r1_Fire_Sorceress_e2/r1_Fire_Sorceress_e2_SkeletonData.asset</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="8" t="s">
@@ -8490,13 +8454,13 @@
         <v/>
       </c>
       <c r="S8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="V8" s="6"/>
       <c r="W8" s="15"/>
@@ -8506,7 +8470,7 @@
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_fire_sorceress_e3</v>
+        <v>hero-bundle-r1_fire_sorceress_e2</v>
       </c>
       <c r="AA8" t="str">
         <f t="shared" si="7"/>
@@ -8519,15 +8483,15 @@
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Light_Telepath_e1</v>
+        <v>r1_Fire_Sorceress_e3</v>
       </c>
       <c r="C9" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Light</v>
+        <v>Fire</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>129</v>
@@ -8537,23 +8501,23 @@
       </c>
       <c r="F9" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_light_telepath_e1</v>
+        <v>hero-bundle-r1_fire_sorceress_e3</v>
       </c>
       <c r="G9" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Light_Telepath_e1/r1_Light_Telepath_e1_Avatar.png</v>
+        <v>Heroes/r1_Fire_Sorceress_e3/r1_Fire_Sorceress_e3_Avatar.png</v>
       </c>
       <c r="H9" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Light_Telepath_e1/r1_Light_Telepath_e1_BurnMap.png</v>
+        <v>Heroes/r1_Fire_Sorceress_e3/r1_Fire_Sorceress_e3_BurnMap.png</v>
       </c>
       <c r="I9" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Light_Telepath_e1/r1_Light_Telepath_e1_SkeletonData.asset</v>
+        <v>Heroes/r1_Fire_Sorceress_e3/r1_Fire_Sorceress_e3_SkeletonData.asset</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="8" t="s">
@@ -8564,7 +8528,7 @@
         <v/>
       </c>
       <c r="S9" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9" s="18" t="s">
         <v>40</v>
@@ -8572,7 +8536,7 @@
       <c r="U9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="15"/>
+      <c r="V9" s="6"/>
       <c r="W9" s="15"/>
       <c r="X9" t="str">
         <f t="shared" si="5"/>
@@ -8580,7 +8544,7 @@
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_light_telepath_e1</v>
+        <v>hero-bundle-r1_fire_sorceress_e3</v>
       </c>
       <c r="AA9" t="str">
         <f t="shared" si="7"/>
@@ -8593,11 +8557,11 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Light_Telepath_e2</v>
+        <v>r1_Light_Telepath_e1</v>
       </c>
       <c r="C10" s="6" t="str">
         <f t="shared" si="9"/>
@@ -8611,23 +8575,23 @@
       </c>
       <c r="F10" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_light_telepath_e2</v>
+        <v>hero-bundle-r1_light_telepath_e1</v>
       </c>
       <c r="G10" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Light_Telepath_e2/r1_Light_Telepath_e2_Avatar.png</v>
+        <v>Heroes/r1_Light_Telepath_e1/r1_Light_Telepath_e1_Avatar.png</v>
       </c>
       <c r="H10" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Light_Telepath_e2/r1_Light_Telepath_e2_BurnMap.png</v>
+        <v>Heroes/r1_Light_Telepath_e1/r1_Light_Telepath_e1_BurnMap.png</v>
       </c>
       <c r="I10" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Light_Telepath_e2/r1_Light_Telepath_e2_SkeletonData.asset</v>
+        <v>Heroes/r1_Light_Telepath_e1/r1_Light_Telepath_e1_SkeletonData.asset</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="8" t="s">
@@ -8638,7 +8602,7 @@
         <v/>
       </c>
       <c r="S10" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T10" s="18" t="s">
         <v>40</v>
@@ -8646,13 +8610,15 @@
       <c r="U10" s="17" t="s">
         <v>27</v>
       </c>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
       <c r="X10" t="str">
         <f t="shared" si="5"/>
         <v>hero-card-4</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_light_telepath_e2</v>
+        <v>hero-bundle-r1_light_telepath_e1</v>
       </c>
       <c r="AA10" t="str">
         <f t="shared" si="7"/>
@@ -8665,11 +8631,11 @@
     </row>
     <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Light_Telepath_e3</v>
+        <v>r1_Light_Telepath_e2</v>
       </c>
       <c r="C11" s="6" t="str">
         <f t="shared" si="9"/>
@@ -8683,23 +8649,23 @@
       </c>
       <c r="F11" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_light_telepath_e3</v>
-      </c>
-      <c r="G11" s="37" t="str">
+        <v>hero-bundle-r1_light_telepath_e2</v>
+      </c>
+      <c r="G11" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Light_Telepath_e3/r1_Light_Telepath_e3_Avatar.png</v>
-      </c>
-      <c r="H11" s="37" t="str">
+        <v>Heroes/r1_Light_Telepath_e2/r1_Light_Telepath_e2_Avatar.png</v>
+      </c>
+      <c r="H11" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Light_Telepath_e3/r1_Light_Telepath_e3_BurnMap.png</v>
-      </c>
-      <c r="I11" s="37" t="str">
+        <v>Heroes/r1_Light_Telepath_e2/r1_Light_Telepath_e2_BurnMap.png</v>
+      </c>
+      <c r="I11" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Light_Telepath_e3/r1_Light_Telepath_e3_SkeletonData.asset</v>
+        <v>Heroes/r1_Light_Telepath_e2/r1_Light_Telepath_e2_SkeletonData.asset</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="8" t="s">
@@ -8709,14 +8675,22 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="U11" s="1"/>
+      <c r="S11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="X11" t="str">
         <f t="shared" si="5"/>
         <v>hero-card-4</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_light_telepath_e3</v>
+        <v>hero-bundle-r1_light_telepath_e2</v>
       </c>
       <c r="AA11" t="str">
         <f t="shared" si="7"/>
@@ -8729,15 +8703,15 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Water_Oracle_e1</v>
+        <v>r1_Light_Telepath_e3</v>
       </c>
       <c r="C12" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Water</v>
+        <v>Light</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>129</v>
@@ -8747,23 +8721,23 @@
       </c>
       <c r="F12" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_water_oracle_e1</v>
-      </c>
-      <c r="G12" s="36" t="str">
+        <v>hero-bundle-r1_light_telepath_e3</v>
+      </c>
+      <c r="G12" s="37" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Water_Oracle_e1/r1_Water_Oracle_e1_Avatar.png</v>
-      </c>
-      <c r="H12" s="36" t="str">
+        <v>Heroes/r1_Light_Telepath_e3/r1_Light_Telepath_e3_Avatar.png</v>
+      </c>
+      <c r="H12" s="37" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Water_Oracle_e1/r1_Water_Oracle_e1_BurnMap.png</v>
-      </c>
-      <c r="I12" s="36" t="str">
+        <v>Heroes/r1_Light_Telepath_e3/r1_Light_Telepath_e3_BurnMap.png</v>
+      </c>
+      <c r="I12" s="37" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Water_Oracle_e1/r1_Water_Oracle_e1_SkeletonData.asset</v>
+        <v>Heroes/r1_Light_Telepath_e3/r1_Light_Telepath_e3_SkeletonData.asset</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="8" t="s">
@@ -8773,13 +8747,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="U12" s="1"/>
       <c r="X12" t="str">
         <f t="shared" si="5"/>
         <v>hero-card-4</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_water_oracle_e1</v>
+        <v>hero-bundle-r1_light_telepath_e3</v>
       </c>
       <c r="AA12" t="str">
         <f t="shared" si="7"/>
@@ -8792,11 +8767,11 @@
     </row>
     <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Water_Oracle_e2</v>
+        <v>r1_Water_Oracle_e1</v>
       </c>
       <c r="C13" s="6" t="str">
         <f t="shared" si="9"/>
@@ -8810,23 +8785,23 @@
       </c>
       <c r="F13" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_water_oracle_e2</v>
+        <v>hero-bundle-r1_water_oracle_e1</v>
       </c>
       <c r="G13" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Water_Oracle_e2/r1_Water_Oracle_e2_Avatar.png</v>
+        <v>Heroes/r1_Water_Oracle_e1/r1_Water_Oracle_e1_Avatar.png</v>
       </c>
       <c r="H13" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Water_Oracle_e2/r1_Water_Oracle_e2_BurnMap.png</v>
+        <v>Heroes/r1_Water_Oracle_e1/r1_Water_Oracle_e1_BurnMap.png</v>
       </c>
       <c r="I13" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Water_Oracle_e2/r1_Water_Oracle_e2_SkeletonData.asset</v>
+        <v>Heroes/r1_Water_Oracle_e1/r1_Water_Oracle_e1_SkeletonData.asset</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="8" t="s">
@@ -8842,7 +8817,7 @@
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_water_oracle_e2</v>
+        <v>hero-bundle-r1_water_oracle_e1</v>
       </c>
       <c r="AA13" t="str">
         <f t="shared" si="7"/>
@@ -8855,11 +8830,11 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B14" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Water_Oracle_e3</v>
+        <v>r1_Water_Oracle_e2</v>
       </c>
       <c r="C14" s="6" t="str">
         <f t="shared" si="9"/>
@@ -8873,23 +8848,23 @@
       </c>
       <c r="F14" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_water_oracle_e3</v>
-      </c>
-      <c r="G14" s="37" t="str">
+        <v>hero-bundle-r1_water_oracle_e2</v>
+      </c>
+      <c r="G14" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Water_Oracle_e3/r1_Water_Oracle_e3_Avatar.png</v>
-      </c>
-      <c r="H14" s="37" t="str">
+        <v>Heroes/r1_Water_Oracle_e2/r1_Water_Oracle_e2_Avatar.png</v>
+      </c>
+      <c r="H14" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Water_Oracle_e3/r1_Water_Oracle_e3_BurnMap.png</v>
-      </c>
-      <c r="I14" s="37" t="str">
+        <v>Heroes/r1_Water_Oracle_e2/r1_Water_Oracle_e2_BurnMap.png</v>
+      </c>
+      <c r="I14" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Water_Oracle_e3/r1_Water_Oracle_e3_SkeletonData.asset</v>
+        <v>Heroes/r1_Water_Oracle_e2/r1_Water_Oracle_e2_SkeletonData.asset</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="8" t="s">
@@ -8905,7 +8880,7 @@
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_water_oracle_e3</v>
+        <v>hero-bundle-r1_water_oracle_e2</v>
       </c>
       <c r="AA14" t="str">
         <f t="shared" si="7"/>
@@ -8918,15 +8893,15 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B15" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Earth_HorseArcher_e1</v>
+        <v>r1_Water_Oracle_e3</v>
       </c>
       <c r="C15" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Earth</v>
+        <v>Water</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>129</v>
@@ -8936,23 +8911,23 @@
       </c>
       <c r="F15" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_earth_horsearcher_e1</v>
-      </c>
-      <c r="G15" s="36" t="str">
+        <v>hero-bundle-r1_water_oracle_e3</v>
+      </c>
+      <c r="G15" s="37" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Earth_HorseArcher_e1/r1_Earth_HorseArcher_e1_Avatar.png</v>
-      </c>
-      <c r="H15" s="36" t="str">
+        <v>Heroes/r1_Water_Oracle_e3/r1_Water_Oracle_e3_Avatar.png</v>
+      </c>
+      <c r="H15" s="37" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Earth_HorseArcher_e1/r1_Earth_HorseArcher_e1_BurnMap.png</v>
-      </c>
-      <c r="I15" s="36" t="str">
+        <v>Heroes/r1_Water_Oracle_e3/r1_Water_Oracle_e3_BurnMap.png</v>
+      </c>
+      <c r="I15" s="37" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Earth_HorseArcher_e1/r1_Earth_HorseArcher_e1_SkeletonData.asset</v>
+        <v>Heroes/r1_Water_Oracle_e3/r1_Water_Oracle_e3_SkeletonData.asset</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="8" t="s">
@@ -8968,7 +8943,7 @@
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_earth_horsearcher_e1</v>
+        <v>hero-bundle-r1_water_oracle_e3</v>
       </c>
       <c r="AA15" t="str">
         <f t="shared" si="7"/>
@@ -8981,11 +8956,11 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Earth_HorseArcher_e2</v>
+        <v>r1_Earth_HorseArcher_e1</v>
       </c>
       <c r="C16" s="6" t="str">
         <f t="shared" si="9"/>
@@ -8999,23 +8974,23 @@
       </c>
       <c r="F16" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_earth_horsearcher_e2</v>
+        <v>hero-bundle-r1_earth_horsearcher_e1</v>
       </c>
       <c r="G16" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Earth_HorseArcher_e2/r1_Earth_HorseArcher_e2_Avatar.png</v>
+        <v>Heroes/r1_Earth_HorseArcher_e1/r1_Earth_HorseArcher_e1_Avatar.png</v>
       </c>
       <c r="H16" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Earth_HorseArcher_e2/r1_Earth_HorseArcher_e2_BurnMap.png</v>
+        <v>Heroes/r1_Earth_HorseArcher_e1/r1_Earth_HorseArcher_e1_BurnMap.png</v>
       </c>
       <c r="I16" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Earth_HorseArcher_e2/r1_Earth_HorseArcher_e2_SkeletonData.asset</v>
+        <v>Heroes/r1_Earth_HorseArcher_e1/r1_Earth_HorseArcher_e1_SkeletonData.asset</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="8" t="s">
@@ -9031,7 +9006,7 @@
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_earth_horsearcher_e2</v>
+        <v>hero-bundle-r1_earth_horsearcher_e1</v>
       </c>
       <c r="AA16" t="str">
         <f t="shared" si="7"/>
@@ -9044,11 +9019,11 @@
     </row>
     <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Earth_HorseArcher_e3</v>
+        <v>r1_Earth_HorseArcher_e2</v>
       </c>
       <c r="C17" s="6" t="str">
         <f t="shared" si="9"/>
@@ -9058,27 +9033,27 @@
         <v>129</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F17" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_earth_horsearcher_e3</v>
+        <v>hero-bundle-r1_earth_horsearcher_e2</v>
       </c>
       <c r="G17" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Earth_HorseArcher_e3/r1_Earth_HorseArcher_e3_Avatar.png</v>
+        <v>Heroes/r1_Earth_HorseArcher_e2/r1_Earth_HorseArcher_e2_Avatar.png</v>
       </c>
       <c r="H17" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Earth_HorseArcher_e3/r1_Earth_HorseArcher_e3_BurnMap.png</v>
+        <v>Heroes/r1_Earth_HorseArcher_e2/r1_Earth_HorseArcher_e2_BurnMap.png</v>
       </c>
       <c r="I17" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Earth_HorseArcher_e3/r1_Earth_HorseArcher_e3_SkeletonData.asset</v>
+        <v>Heroes/r1_Earth_HorseArcher_e2/r1_Earth_HorseArcher_e2_SkeletonData.asset</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="8" t="s">
@@ -9094,7 +9069,7 @@
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_earth_horsearcher_e3</v>
+        <v>hero-bundle-r1_earth_horsearcher_e2</v>
       </c>
       <c r="AA17" t="str">
         <f t="shared" si="7"/>
@@ -9107,11 +9082,11 @@
     </row>
     <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r1_Earth_HorseArcher_e4</v>
+        <v>r1_Earth_HorseArcher_e3</v>
       </c>
       <c r="C18" s="6" t="str">
         <f t="shared" si="9"/>
@@ -9125,23 +9100,23 @@
       </c>
       <c r="F18" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r1_earth_horsearcher_e4</v>
+        <v>hero-bundle-r1_earth_horsearcher_e3</v>
       </c>
       <c r="G18" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r1_Earth_HorseArcher_e4/r1_Earth_HorseArcher_e4_Avatar.png</v>
+        <v>Heroes/r1_Earth_HorseArcher_e3/r1_Earth_HorseArcher_e3_Avatar.png</v>
       </c>
       <c r="H18" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r1_Earth_HorseArcher_e4/r1_Earth_HorseArcher_e4_BurnMap.png</v>
+        <v>Heroes/r1_Earth_HorseArcher_e3/r1_Earth_HorseArcher_e3_BurnMap.png</v>
       </c>
       <c r="I18" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r1_Earth_HorseArcher_e4/r1_Earth_HorseArcher_e4_SkeletonData.asset</v>
+        <v>Heroes/r1_Earth_HorseArcher_e3/r1_Earth_HorseArcher_e3_SkeletonData.asset</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="8" t="s">
@@ -9157,7 +9132,7 @@
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r1_earth_horsearcher_e4</v>
+        <v>hero-bundle-r1_earth_horsearcher_e3</v>
       </c>
       <c r="AA18" t="str">
         <f t="shared" si="7"/>
@@ -9170,11 +9145,11 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Earth_StoneSister_e1</v>
+        <v>r1_Earth_HorseArcher_e4</v>
       </c>
       <c r="C19" s="6" t="str">
         <f t="shared" si="9"/>
@@ -9184,27 +9159,27 @@
         <v>129</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F19" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_earth_stonesister_e1</v>
+        <v>hero-bundle-r1_earth_horsearcher_e4</v>
       </c>
       <c r="G19" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Earth_StoneSister_e1/r2_Earth_StoneSister_e1_Avatar.png</v>
+        <v>Heroes/r1_Earth_HorseArcher_e4/r1_Earth_HorseArcher_e4_Avatar.png</v>
       </c>
       <c r="H19" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Earth_StoneSister_e1/r2_Earth_StoneSister_e1_BurnMap.png</v>
+        <v>Heroes/r1_Earth_HorseArcher_e4/r1_Earth_HorseArcher_e4_BurnMap.png</v>
       </c>
       <c r="I19" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Earth_StoneSister_e1/r2_Earth_StoneSister_e1_SkeletonData.asset</v>
+        <v>Heroes/r1_Earth_HorseArcher_e4/r1_Earth_HorseArcher_e4_SkeletonData.asset</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="8" t="s">
@@ -9220,7 +9195,7 @@
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_earth_stonesister_e1</v>
+        <v>hero-bundle-r1_earth_horsearcher_e4</v>
       </c>
       <c r="AA19" t="str">
         <f t="shared" si="7"/>
@@ -9233,11 +9208,11 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Earth_StoneSister_e2</v>
+        <v>r2_Earth_StoneSister_e1</v>
       </c>
       <c r="C20" s="6" t="str">
         <f t="shared" si="9"/>
@@ -9251,23 +9226,23 @@
       </c>
       <c r="F20" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_earth_stonesister_e2</v>
+        <v>hero-bundle-r2_earth_stonesister_e1</v>
       </c>
       <c r="G20" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Earth_StoneSister_e2/r2_Earth_StoneSister_e2_Avatar.png</v>
+        <v>Heroes/r2_Earth_StoneSister_e1/r2_Earth_StoneSister_e1_Avatar.png</v>
       </c>
       <c r="H20" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Earth_StoneSister_e2/r2_Earth_StoneSister_e2_BurnMap.png</v>
+        <v>Heroes/r2_Earth_StoneSister_e1/r2_Earth_StoneSister_e1_BurnMap.png</v>
       </c>
       <c r="I20" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Earth_StoneSister_e2/r2_Earth_StoneSister_e2_SkeletonData.asset</v>
+        <v>Heroes/r2_Earth_StoneSister_e1/r2_Earth_StoneSister_e1_SkeletonData.asset</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="8" t="s">
@@ -9283,7 +9258,7 @@
       </c>
       <c r="Y20" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_earth_stonesister_e2</v>
+        <v>hero-bundle-r2_earth_stonesister_e1</v>
       </c>
       <c r="AA20" t="str">
         <f t="shared" si="7"/>
@@ -9296,15 +9271,15 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Light_Vanguard_e1</v>
+        <v>r2_Earth_StoneSister_e2</v>
       </c>
       <c r="C21" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Light</v>
+        <v>Earth</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>129</v>
@@ -9314,23 +9289,23 @@
       </c>
       <c r="F21" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_light_vanguard_e1</v>
+        <v>hero-bundle-r2_earth_stonesister_e2</v>
       </c>
       <c r="G21" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Light_Vanguard_e1/r2_Light_Vanguard_e1_Avatar.png</v>
+        <v>Heroes/r2_Earth_StoneSister_e2/r2_Earth_StoneSister_e2_Avatar.png</v>
       </c>
       <c r="H21" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Light_Vanguard_e1/r2_Light_Vanguard_e1_BurnMap.png</v>
+        <v>Heroes/r2_Earth_StoneSister_e2/r2_Earth_StoneSister_e2_BurnMap.png</v>
       </c>
       <c r="I21" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Light_Vanguard_e1/r2_Light_Vanguard_e1_SkeletonData.asset</v>
+        <v>Heroes/r2_Earth_StoneSister_e2/r2_Earth_StoneSister_e2_SkeletonData.asset</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="8" t="s">
@@ -9346,7 +9321,7 @@
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_light_vanguard_e1</v>
+        <v>hero-bundle-r2_earth_stonesister_e2</v>
       </c>
       <c r="AA21" t="str">
         <f t="shared" si="7"/>
@@ -9359,11 +9334,11 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Light_Vanguard_e2</v>
+        <v>r2_Light_Vanguard_e1</v>
       </c>
       <c r="C22" s="6" t="str">
         <f t="shared" si="9"/>
@@ -9377,23 +9352,23 @@
       </c>
       <c r="F22" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_light_vanguard_e2</v>
+        <v>hero-bundle-r2_light_vanguard_e1</v>
       </c>
       <c r="G22" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Light_Vanguard_e2/r2_Light_Vanguard_e2_Avatar.png</v>
+        <v>Heroes/r2_Light_Vanguard_e1/r2_Light_Vanguard_e1_Avatar.png</v>
       </c>
       <c r="H22" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Light_Vanguard_e2/r2_Light_Vanguard_e2_BurnMap.png</v>
+        <v>Heroes/r2_Light_Vanguard_e1/r2_Light_Vanguard_e1_BurnMap.png</v>
       </c>
       <c r="I22" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Light_Vanguard_e2/r2_Light_Vanguard_e2_SkeletonData.asset</v>
+        <v>Heroes/r2_Light_Vanguard_e1/r2_Light_Vanguard_e1_SkeletonData.asset</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="8" t="s">
@@ -9409,7 +9384,7 @@
       </c>
       <c r="Y22" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_light_vanguard_e2</v>
+        <v>hero-bundle-r2_light_vanguard_e1</v>
       </c>
       <c r="AA22" t="str">
         <f t="shared" si="7"/>
@@ -9422,15 +9397,15 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Water_Assassin_e1</v>
+        <v>r2_Light_Vanguard_e2</v>
       </c>
       <c r="C23" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Water</v>
+        <v>Light</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>129</v>
@@ -9440,23 +9415,23 @@
       </c>
       <c r="F23" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_water_assassin_e1</v>
+        <v>hero-bundle-r2_light_vanguard_e2</v>
       </c>
       <c r="G23" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Water_Assassin_e1/r2_Water_Assassin_e1_Avatar.png</v>
+        <v>Heroes/r2_Light_Vanguard_e2/r2_Light_Vanguard_e2_Avatar.png</v>
       </c>
       <c r="H23" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Water_Assassin_e1/r2_Water_Assassin_e1_BurnMap.png</v>
+        <v>Heroes/r2_Light_Vanguard_e2/r2_Light_Vanguard_e2_BurnMap.png</v>
       </c>
       <c r="I23" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Water_Assassin_e1/r2_Water_Assassin_e1_SkeletonData.asset</v>
+        <v>Heroes/r2_Light_Vanguard_e2/r2_Light_Vanguard_e2_SkeletonData.asset</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="8" t="s">
@@ -9472,7 +9447,7 @@
       </c>
       <c r="Y23" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_water_assassin_e1</v>
+        <v>hero-bundle-r2_light_vanguard_e2</v>
       </c>
       <c r="AA23" t="str">
         <f t="shared" si="7"/>
@@ -9485,11 +9460,11 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Water_Assassin_e2</v>
+        <v>r2_Water_Assassin_e1</v>
       </c>
       <c r="C24" s="6" t="str">
         <f t="shared" si="9"/>
@@ -9503,23 +9478,23 @@
       </c>
       <c r="F24" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_water_assassin_e2</v>
+        <v>hero-bundle-r2_water_assassin_e1</v>
       </c>
       <c r="G24" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Water_Assassin_e2/r2_Water_Assassin_e2_Avatar.png</v>
+        <v>Heroes/r2_Water_Assassin_e1/r2_Water_Assassin_e1_Avatar.png</v>
       </c>
       <c r="H24" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Water_Assassin_e2/r2_Water_Assassin_e2_BurnMap.png</v>
+        <v>Heroes/r2_Water_Assassin_e1/r2_Water_Assassin_e1_BurnMap.png</v>
       </c>
       <c r="I24" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Water_Assassin_e2/r2_Water_Assassin_e2_SkeletonData.asset</v>
+        <v>Heroes/r2_Water_Assassin_e1/r2_Water_Assassin_e1_SkeletonData.asset</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="8" t="s">
@@ -9529,14 +9504,13 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O24" s="22"/>
       <c r="X24" t="str">
         <f t="shared" si="5"/>
         <v>hero-card-4</v>
       </c>
       <c r="Y24" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_water_assassin_e2</v>
+        <v>hero-bundle-r2_water_assassin_e1</v>
       </c>
       <c r="AA24" t="str">
         <f t="shared" si="7"/>
@@ -9549,15 +9523,15 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Light_Specter_e1</v>
+        <v>r2_Water_Assassin_e2</v>
       </c>
       <c r="C25" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Light</v>
+        <v>Water</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>129</v>
@@ -9567,23 +9541,23 @@
       </c>
       <c r="F25" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_light_specter_e1</v>
+        <v>hero-bundle-r2_water_assassin_e2</v>
       </c>
       <c r="G25" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Light_Specter_e1/r2_Light_Specter_e1_Avatar.png</v>
+        <v>Heroes/r2_Water_Assassin_e2/r2_Water_Assassin_e2_Avatar.png</v>
       </c>
       <c r="H25" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Light_Specter_e1/r2_Light_Specter_e1_BurnMap.png</v>
+        <v>Heroes/r2_Water_Assassin_e2/r2_Water_Assassin_e2_BurnMap.png</v>
       </c>
       <c r="I25" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Light_Specter_e1/r2_Light_Specter_e1_SkeletonData.asset</v>
+        <v>Heroes/r2_Water_Assassin_e2/r2_Water_Assassin_e2_SkeletonData.asset</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="8" t="s">
@@ -9593,13 +9567,14 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
+      <c r="O25" s="22"/>
       <c r="X25" t="str">
         <f t="shared" si="5"/>
         <v>hero-card-4</v>
       </c>
       <c r="Y25" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_light_specter_e1</v>
+        <v>hero-bundle-r2_water_assassin_e2</v>
       </c>
       <c r="AA25" t="str">
         <f t="shared" si="7"/>
@@ -9612,11 +9587,11 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Light_Specter_e2</v>
+        <v>r2_Light_Specter_e1</v>
       </c>
       <c r="C26" s="6" t="str">
         <f t="shared" si="9"/>
@@ -9630,23 +9605,23 @@
       </c>
       <c r="F26" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_light_specter_e2</v>
+        <v>hero-bundle-r2_light_specter_e1</v>
       </c>
       <c r="G26" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Light_Specter_e2/r2_Light_Specter_e2_Avatar.png</v>
+        <v>Heroes/r2_Light_Specter_e1/r2_Light_Specter_e1_Avatar.png</v>
       </c>
       <c r="H26" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Light_Specter_e2/r2_Light_Specter_e2_BurnMap.png</v>
+        <v>Heroes/r2_Light_Specter_e1/r2_Light_Specter_e1_BurnMap.png</v>
       </c>
       <c r="I26" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Light_Specter_e2/r2_Light_Specter_e2_SkeletonData.asset</v>
+        <v>Heroes/r2_Light_Specter_e1/r2_Light_Specter_e1_SkeletonData.asset</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="8" t="s">
@@ -9662,7 +9637,7 @@
       </c>
       <c r="Y26" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_light_specter_e2</v>
+        <v>hero-bundle-r2_light_specter_e1</v>
       </c>
       <c r="AA26" t="str">
         <f t="shared" si="7"/>
@@ -9675,15 +9650,15 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Water_Specter_e1</v>
+        <v>r2_Light_Specter_e2</v>
       </c>
       <c r="C27" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Water</v>
+        <v>Light</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>129</v>
@@ -9693,23 +9668,23 @@
       </c>
       <c r="F27" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_water_specter_e1</v>
+        <v>hero-bundle-r2_light_specter_e2</v>
       </c>
       <c r="G27" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Water_Specter_e1/r2_Water_Specter_e1_Avatar.png</v>
+        <v>Heroes/r2_Light_Specter_e2/r2_Light_Specter_e2_Avatar.png</v>
       </c>
       <c r="H27" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Water_Specter_e1/r2_Water_Specter_e1_BurnMap.png</v>
+        <v>Heroes/r2_Light_Specter_e2/r2_Light_Specter_e2_BurnMap.png</v>
       </c>
       <c r="I27" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Water_Specter_e1/r2_Water_Specter_e1_SkeletonData.asset</v>
+        <v>Heroes/r2_Light_Specter_e2/r2_Light_Specter_e2_SkeletonData.asset</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="10">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="8" t="s">
@@ -9725,7 +9700,7 @@
       </c>
       <c r="Y27" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_water_specter_e1</v>
+        <v>hero-bundle-r2_light_specter_e2</v>
       </c>
       <c r="AA27" t="str">
         <f t="shared" si="7"/>
@@ -9738,11 +9713,11 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Water_Specter_e2</v>
+        <v>r2_Water_Specter_e1</v>
       </c>
       <c r="C28" s="6" t="str">
         <f t="shared" si="9"/>
@@ -9756,23 +9731,23 @@
       </c>
       <c r="F28" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_water_specter_e2</v>
+        <v>hero-bundle-r2_water_specter_e1</v>
       </c>
       <c r="G28" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Water_Specter_e2/r2_Water_Specter_e2_Avatar.png</v>
+        <v>Heroes/r2_Water_Specter_e1/r2_Water_Specter_e1_Avatar.png</v>
       </c>
       <c r="H28" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Water_Specter_e2/r2_Water_Specter_e2_BurnMap.png</v>
+        <v>Heroes/r2_Water_Specter_e1/r2_Water_Specter_e1_BurnMap.png</v>
       </c>
       <c r="I28" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Water_Specter_e2/r2_Water_Specter_e2_SkeletonData.asset</v>
-      </c>
-      <c r="J28" s="15"/>
+        <v>Heroes/r2_Water_Specter_e1/r2_Water_Specter_e1_SkeletonData.asset</v>
+      </c>
+      <c r="J28" s="6"/>
       <c r="K28" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="8" t="s">
@@ -9788,7 +9763,7 @@
       </c>
       <c r="Y28" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_water_specter_e2</v>
+        <v>hero-bundle-r2_water_specter_e1</v>
       </c>
       <c r="AA28" t="str">
         <f t="shared" si="7"/>
@@ -9801,15 +9776,15 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Dark_Daywalker_e1</v>
+        <v>r2_Water_Specter_e2</v>
       </c>
       <c r="C29" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Dark</v>
+        <v>Water</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>129</v>
@@ -9819,23 +9794,23 @@
       </c>
       <c r="F29" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_dark_daywalker_e1</v>
+        <v>hero-bundle-r2_water_specter_e2</v>
       </c>
       <c r="G29" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Dark_Daywalker_e1/r2_Dark_Daywalker_e1_Avatar.png</v>
+        <v>Heroes/r2_Water_Specter_e2/r2_Water_Specter_e2_Avatar.png</v>
       </c>
       <c r="H29" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Dark_Daywalker_e1/r2_Dark_Daywalker_e1_BurnMap.png</v>
+        <v>Heroes/r2_Water_Specter_e2/r2_Water_Specter_e2_BurnMap.png</v>
       </c>
       <c r="I29" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Dark_Daywalker_e1/r2_Dark_Daywalker_e1_SkeletonData.asset</v>
-      </c>
-      <c r="J29" s="6"/>
+        <v>Heroes/r2_Water_Specter_e2/r2_Water_Specter_e2_SkeletonData.asset</v>
+      </c>
+      <c r="J29" s="15"/>
       <c r="K29" s="10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="8" t="s">
@@ -9851,7 +9826,7 @@
       </c>
       <c r="Y29" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_dark_daywalker_e1</v>
+        <v>hero-bundle-r2_water_specter_e2</v>
       </c>
       <c r="AA29" t="str">
         <f t="shared" si="7"/>
@@ -9864,11 +9839,11 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Dark_Daywalker_e2</v>
+        <v>r2_Dark_Daywalker_e1</v>
       </c>
       <c r="C30" s="6" t="str">
         <f t="shared" si="9"/>
@@ -9882,23 +9857,23 @@
       </c>
       <c r="F30" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_dark_daywalker_e2</v>
+        <v>hero-bundle-r2_dark_daywalker_e1</v>
       </c>
       <c r="G30" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Dark_Daywalker_e2/r2_Dark_Daywalker_e2_Avatar.png</v>
+        <v>Heroes/r2_Dark_Daywalker_e1/r2_Dark_Daywalker_e1_Avatar.png</v>
       </c>
       <c r="H30" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Dark_Daywalker_e2/r2_Dark_Daywalker_e2_BurnMap.png</v>
+        <v>Heroes/r2_Dark_Daywalker_e1/r2_Dark_Daywalker_e1_BurnMap.png</v>
       </c>
       <c r="I30" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Dark_Daywalker_e2/r2_Dark_Daywalker_e2_SkeletonData.asset</v>
+        <v>Heroes/r2_Dark_Daywalker_e1/r2_Dark_Daywalker_e1_SkeletonData.asset</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="8" t="s">
@@ -9914,7 +9889,7 @@
       </c>
       <c r="Y30" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r2_dark_daywalker_e2</v>
+        <v>hero-bundle-r2_dark_daywalker_e1</v>
       </c>
       <c r="AA30" t="str">
         <f t="shared" si="7"/>
@@ -9926,16 +9901,16 @@
       </c>
     </row>
     <row r="31" spans="1:28">
-      <c r="A31" s="38" t="s">
-        <v>210</v>
+      <c r="A31" t="s">
+        <v>81</v>
       </c>
       <c r="B31" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Earth_Bard_e1</v>
+        <v>r2_Dark_Daywalker_e2</v>
       </c>
       <c r="C31" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Earth</v>
+        <v>Dark</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>129</v>
@@ -9945,23 +9920,23 @@
       </c>
       <c r="F31" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_earth_bard_e1</v>
+        <v>hero-bundle-r2_dark_daywalker_e2</v>
       </c>
       <c r="G31" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Earth_Bard_e1/r3_Earth_Bard_e1_Avatar.png</v>
+        <v>Heroes/r2_Dark_Daywalker_e2/r2_Dark_Daywalker_e2_Avatar.png</v>
       </c>
       <c r="H31" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Earth_Bard_e1/r3_Earth_Bard_e1_BurnMap.png</v>
+        <v>Heroes/r2_Dark_Daywalker_e2/r2_Dark_Daywalker_e2_BurnMap.png</v>
       </c>
       <c r="I31" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Earth_Bard_e1/r3_Earth_Bard_e1_SkeletonData.asset</v>
+        <v>Heroes/r2_Dark_Daywalker_e2/r2_Dark_Daywalker_e2_SkeletonData.asset</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="8" t="s">
@@ -9971,16 +9946,13 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
       <c r="X31" t="str">
         <f t="shared" si="5"/>
         <v>hero-card-4</v>
       </c>
       <c r="Y31" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r3_earth_bard_e1</v>
+        <v>hero-bundle-r2_dark_daywalker_e2</v>
       </c>
       <c r="AA31" t="str">
         <f t="shared" si="7"/>
@@ -9993,11 +9965,11 @@
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Earth_Bard_e2</v>
+        <v>r3_Earth_Bard_e1</v>
       </c>
       <c r="C32" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10011,23 +9983,23 @@
       </c>
       <c r="F32" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_earth_bard_e2</v>
+        <v>hero-bundle-r3_earth_bard_e1</v>
       </c>
       <c r="G32" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Earth_Bard_e2/r3_Earth_Bard_e2_Avatar.png</v>
+        <v>Heroes/r3_Earth_Bard_e1/r3_Earth_Bard_e1_Avatar.png</v>
       </c>
       <c r="H32" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Earth_Bard_e2/r3_Earth_Bard_e2_BurnMap.png</v>
+        <v>Heroes/r3_Earth_Bard_e1/r3_Earth_Bard_e1_BurnMap.png</v>
       </c>
       <c r="I32" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Earth_Bard_e2/r3_Earth_Bard_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Earth_Bard_e1/r3_Earth_Bard_e1_SkeletonData.asset</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="10">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="8" t="s">
@@ -10046,7 +10018,7 @@
       </c>
       <c r="Y32" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r3_earth_bard_e2</v>
+        <v>hero-bundle-r3_earth_bard_e1</v>
       </c>
       <c r="AA32" t="str">
         <f t="shared" si="7"/>
@@ -10058,16 +10030,16 @@
       </c>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33" t="s">
-        <v>82</v>
+      <c r="A33" s="38" t="s">
+        <v>211</v>
       </c>
       <c r="B33" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Dark_Dragon_e1</v>
+        <v>r3_Earth_Bard_e2</v>
       </c>
       <c r="C33" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Dark</v>
+        <v>Earth</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>129</v>
@@ -10077,23 +10049,23 @@
       </c>
       <c r="F33" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_dark_dragon_e1</v>
+        <v>hero-bundle-r3_earth_bard_e2</v>
       </c>
       <c r="G33" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Dark_Dragon_e1/r3_Dark_Dragon_e1_Avatar.png</v>
+        <v>Heroes/r3_Earth_Bard_e2/r3_Earth_Bard_e2_Avatar.png</v>
       </c>
       <c r="H33" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Dark_Dragon_e1/r3_Dark_Dragon_e1_BurnMap.png</v>
+        <v>Heroes/r3_Earth_Bard_e2/r3_Earth_Bard_e2_BurnMap.png</v>
       </c>
       <c r="I33" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Dark_Dragon_e1/r3_Dark_Dragon_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Earth_Bard_e2/r3_Earth_Bard_e2_SkeletonData.asset</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="8" t="s">
@@ -10112,7 +10084,7 @@
       </c>
       <c r="Y33" t="str">
         <f t="shared" si="6"/>
-        <v>hero-bundle-r3_dark_dragon_e1</v>
+        <v>hero-bundle-r3_earth_bard_e2</v>
       </c>
       <c r="AA33" t="str">
         <f t="shared" si="7"/>
@@ -10125,11 +10097,11 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Dark_Dragon_e2</v>
+        <v>r3_Dark_Dragon_e1</v>
       </c>
       <c r="C34" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10139,27 +10111,27 @@
         <v>129</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F34" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_dark_dragon_e2</v>
+        <v>hero-bundle-r3_dark_dragon_e1</v>
       </c>
       <c r="G34" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Dark_Dragon_e2/r3_Dark_Dragon_e2_Avatar.png</v>
+        <v>Heroes/r3_Dark_Dragon_e1/r3_Dark_Dragon_e1_Avatar.png</v>
       </c>
       <c r="H34" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Dark_Dragon_e2/r3_Dark_Dragon_e2_BurnMap.png</v>
+        <v>Heroes/r3_Dark_Dragon_e1/r3_Dark_Dragon_e1_BurnMap.png</v>
       </c>
       <c r="I34" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Dark_Dragon_e2/r3_Dark_Dragon_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Dark_Dragon_e1/r3_Dark_Dragon_e1_SkeletonData.asset</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="8" t="s">
@@ -10173,12 +10145,12 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="X34" t="str">
-        <f t="shared" ref="X34:X65" si="15">IFERROR(INDEX(T$5:T$10,MATCH($A34,$S$5:$S$10,0)),D34)</f>
+        <f t="shared" si="5"/>
         <v>hero-card-4</v>
       </c>
       <c r="Y34" t="str">
-        <f t="shared" ref="Y34:Y65" si="16">IFERROR(INDEX(U$5:U$10,MATCH($A34,$S$5:$S$10,0)),F34)</f>
-        <v>hero-bundle-r3_dark_dragon_e2</v>
+        <f t="shared" si="6"/>
+        <v>hero-bundle-r3_dark_dragon_e1</v>
       </c>
       <c r="AA34" t="str">
         <f t="shared" si="7"/>
@@ -10191,11 +10163,11 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Dark_Dragon_e3</v>
+        <v>r3_Dark_Dragon_e2</v>
       </c>
       <c r="C35" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10205,27 +10177,27 @@
         <v>129</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F35" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_dark_dragon_e3</v>
+        <v>hero-bundle-r3_dark_dragon_e2</v>
       </c>
       <c r="G35" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Dark_Dragon_e3/r3_Dark_Dragon_e3_Avatar.png</v>
+        <v>Heroes/r3_Dark_Dragon_e2/r3_Dark_Dragon_e2_Avatar.png</v>
       </c>
       <c r="H35" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Dark_Dragon_e3/r3_Dark_Dragon_e3_BurnMap.png</v>
+        <v>Heroes/r3_Dark_Dragon_e2/r3_Dark_Dragon_e2_BurnMap.png</v>
       </c>
       <c r="I35" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Dark_Dragon_e3/r3_Dark_Dragon_e3_SkeletonData.asset</v>
+        <v>Heroes/r3_Dark_Dragon_e2/r3_Dark_Dragon_e2_SkeletonData.asset</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="10">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="8" t="s">
@@ -10239,12 +10211,12 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="X35" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="X35:X66" si="15">IFERROR(INDEX(T$6:T$11,MATCH($A35,$S$6:$S$11,0)),D35)</f>
         <v>hero-card-4</v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="16"/>
-        <v>hero-bundle-r3_dark_dragon_e3</v>
+        <f t="shared" ref="Y35:Y66" si="16">IFERROR(INDEX(U$6:U$11,MATCH($A35,$S$6:$S$11,0)),F35)</f>
+        <v>hero-bundle-r3_dark_dragon_e2</v>
       </c>
       <c r="AA35" t="str">
         <f t="shared" si="7"/>
@@ -10257,11 +10229,11 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Dark_Dragon_e4</v>
+        <v>r3_Dark_Dragon_e3</v>
       </c>
       <c r="C36" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10275,23 +10247,23 @@
       </c>
       <c r="F36" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_dark_dragon_e4</v>
+        <v>hero-bundle-r3_dark_dragon_e3</v>
       </c>
       <c r="G36" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Dark_Dragon_e4/r3_Dark_Dragon_e4_Avatar.png</v>
+        <v>Heroes/r3_Dark_Dragon_e3/r3_Dark_Dragon_e3_Avatar.png</v>
       </c>
       <c r="H36" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Dark_Dragon_e4/r3_Dark_Dragon_e4_BurnMap.png</v>
+        <v>Heroes/r3_Dark_Dragon_e3/r3_Dark_Dragon_e3_BurnMap.png</v>
       </c>
       <c r="I36" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Dark_Dragon_e4/r3_Dark_Dragon_e4_SkeletonData.asset</v>
+        <v>Heroes/r3_Dark_Dragon_e3/r3_Dark_Dragon_e3_SkeletonData.asset</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="8" t="s">
@@ -10310,7 +10282,7 @@
       </c>
       <c r="Y36" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_dark_dragon_e4</v>
+        <v>hero-bundle-r3_dark_dragon_e3</v>
       </c>
       <c r="AA36" t="str">
         <f t="shared" si="7"/>
@@ -10323,41 +10295,41 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Earth_Dragon_e1</v>
+        <v>r3_Dark_Dragon_e4</v>
       </c>
       <c r="C37" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Earth</v>
+        <v>Dark</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F37" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_earth_dragon_e1</v>
+        <v>hero-bundle-r3_dark_dragon_e4</v>
       </c>
       <c r="G37" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Earth_Dragon_e1/r3_Earth_Dragon_e1_Avatar.png</v>
+        <v>Heroes/r3_Dark_Dragon_e4/r3_Dark_Dragon_e4_Avatar.png</v>
       </c>
       <c r="H37" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Earth_Dragon_e1/r3_Earth_Dragon_e1_BurnMap.png</v>
+        <v>Heroes/r3_Dark_Dragon_e4/r3_Dark_Dragon_e4_BurnMap.png</v>
       </c>
       <c r="I37" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Earth_Dragon_e1/r3_Earth_Dragon_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Dark_Dragon_e4/r3_Dark_Dragon_e4_SkeletonData.asset</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="10">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="8" t="s">
@@ -10367,8 +10339,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
       <c r="X37" t="str">
         <f t="shared" si="15"/>
@@ -10376,7 +10348,7 @@
       </c>
       <c r="Y37" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_earth_dragon_e1</v>
+        <v>hero-bundle-r3_dark_dragon_e4</v>
       </c>
       <c r="AA37" t="str">
         <f t="shared" si="7"/>
@@ -10389,11 +10361,11 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Earth_Dragon_e2</v>
+        <v>r3_Earth_Dragon_e1</v>
       </c>
       <c r="C38" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10403,27 +10375,27 @@
         <v>129</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F38" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_earth_dragon_e2</v>
+        <v>hero-bundle-r3_earth_dragon_e1</v>
       </c>
       <c r="G38" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Earth_Dragon_e2/r3_Earth_Dragon_e2_Avatar.png</v>
+        <v>Heroes/r3_Earth_Dragon_e1/r3_Earth_Dragon_e1_Avatar.png</v>
       </c>
       <c r="H38" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Earth_Dragon_e2/r3_Earth_Dragon_e2_BurnMap.png</v>
+        <v>Heroes/r3_Earth_Dragon_e1/r3_Earth_Dragon_e1_BurnMap.png</v>
       </c>
       <c r="I38" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Earth_Dragon_e2/r3_Earth_Dragon_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Earth_Dragon_e1/r3_Earth_Dragon_e1_SkeletonData.asset</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="10">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="8" t="s">
@@ -10433,8 +10405,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
       <c r="Q38" s="15"/>
       <c r="X38" t="str">
         <f t="shared" si="15"/>
@@ -10442,7 +10414,7 @@
       </c>
       <c r="Y38" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_earth_dragon_e2</v>
+        <v>hero-bundle-r3_earth_dragon_e1</v>
       </c>
       <c r="AA38" t="str">
         <f t="shared" si="7"/>
@@ -10455,11 +10427,11 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Earth_Dragon_e3</v>
+        <v>r3_Earth_Dragon_e2</v>
       </c>
       <c r="C39" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10469,27 +10441,27 @@
         <v>129</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F39" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_earth_dragon_e3</v>
+        <v>hero-bundle-r3_earth_dragon_e2</v>
       </c>
       <c r="G39" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Earth_Dragon_e3/r3_Earth_Dragon_e3_Avatar.png</v>
+        <v>Heroes/r3_Earth_Dragon_e2/r3_Earth_Dragon_e2_Avatar.png</v>
       </c>
       <c r="H39" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Earth_Dragon_e3/r3_Earth_Dragon_e3_BurnMap.png</v>
+        <v>Heroes/r3_Earth_Dragon_e2/r3_Earth_Dragon_e2_BurnMap.png</v>
       </c>
       <c r="I39" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Earth_Dragon_e3/r3_Earth_Dragon_e3_SkeletonData.asset</v>
+        <v>Heroes/r3_Earth_Dragon_e2/r3_Earth_Dragon_e2_SkeletonData.asset</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="8" t="s">
@@ -10508,7 +10480,7 @@
       </c>
       <c r="Y39" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_earth_dragon_e3</v>
+        <v>hero-bundle-r3_earth_dragon_e2</v>
       </c>
       <c r="AA39" t="str">
         <f t="shared" si="7"/>
@@ -10521,11 +10493,11 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Earth_Dragon_e4</v>
+        <v>r3_Earth_Dragon_e3</v>
       </c>
       <c r="C40" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10539,23 +10511,23 @@
       </c>
       <c r="F40" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_earth_dragon_e4</v>
+        <v>hero-bundle-r3_earth_dragon_e3</v>
       </c>
       <c r="G40" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Earth_Dragon_e4/r3_Earth_Dragon_e4_Avatar.png</v>
+        <v>Heroes/r3_Earth_Dragon_e3/r3_Earth_Dragon_e3_Avatar.png</v>
       </c>
       <c r="H40" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Earth_Dragon_e4/r3_Earth_Dragon_e4_BurnMap.png</v>
+        <v>Heroes/r3_Earth_Dragon_e3/r3_Earth_Dragon_e3_BurnMap.png</v>
       </c>
       <c r="I40" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Earth_Dragon_e4/r3_Earth_Dragon_e4_SkeletonData.asset</v>
+        <v>Heroes/r3_Earth_Dragon_e3/r3_Earth_Dragon_e3_SkeletonData.asset</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="10">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="8" t="s">
@@ -10574,7 +10546,7 @@
       </c>
       <c r="Y40" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_earth_dragon_e4</v>
+        <v>hero-bundle-r3_earth_dragon_e3</v>
       </c>
       <c r="AA40" t="str">
         <f t="shared" si="7"/>
@@ -10587,41 +10559,41 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Light_Dragon_e1</v>
+        <v>r3_Earth_Dragon_e4</v>
       </c>
       <c r="C41" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Light</v>
+        <v>Earth</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F41" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_light_dragon_e1</v>
+        <v>hero-bundle-r3_earth_dragon_e4</v>
       </c>
       <c r="G41" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Light_Dragon_e1/r3_Light_Dragon_e1_Avatar.png</v>
+        <v>Heroes/r3_Earth_Dragon_e4/r3_Earth_Dragon_e4_Avatar.png</v>
       </c>
       <c r="H41" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Light_Dragon_e1/r3_Light_Dragon_e1_BurnMap.png</v>
+        <v>Heroes/r3_Earth_Dragon_e4/r3_Earth_Dragon_e4_BurnMap.png</v>
       </c>
       <c r="I41" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Light_Dragon_e1/r3_Light_Dragon_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Earth_Dragon_e4/r3_Earth_Dragon_e4_SkeletonData.asset</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="8" t="s">
@@ -10640,7 +10612,7 @@
       </c>
       <c r="Y41" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_light_dragon_e1</v>
+        <v>hero-bundle-r3_earth_dragon_e4</v>
       </c>
       <c r="AA41" t="str">
         <f t="shared" si="7"/>
@@ -10653,11 +10625,11 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Light_Dragon_e2</v>
+        <v>r3_Light_Dragon_e1</v>
       </c>
       <c r="C42" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10667,27 +10639,27 @@
         <v>129</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F42" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_light_dragon_e2</v>
+        <v>hero-bundle-r3_light_dragon_e1</v>
       </c>
       <c r="G42" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Light_Dragon_e2/r3_Light_Dragon_e2_Avatar.png</v>
+        <v>Heroes/r3_Light_Dragon_e1/r3_Light_Dragon_e1_Avatar.png</v>
       </c>
       <c r="H42" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Light_Dragon_e2/r3_Light_Dragon_e2_BurnMap.png</v>
+        <v>Heroes/r3_Light_Dragon_e1/r3_Light_Dragon_e1_BurnMap.png</v>
       </c>
       <c r="I42" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Light_Dragon_e2/r3_Light_Dragon_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Light_Dragon_e1/r3_Light_Dragon_e1_SkeletonData.asset</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="10">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="8" t="s">
@@ -10706,7 +10678,7 @@
       </c>
       <c r="Y42" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_light_dragon_e2</v>
+        <v>hero-bundle-r3_light_dragon_e1</v>
       </c>
       <c r="AA42" t="str">
         <f t="shared" si="7"/>
@@ -10719,11 +10691,11 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Light_Dragon_e3</v>
+        <v>r3_Light_Dragon_e2</v>
       </c>
       <c r="C43" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10733,27 +10705,27 @@
         <v>129</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F43" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_light_dragon_e3</v>
+        <v>hero-bundle-r3_light_dragon_e2</v>
       </c>
       <c r="G43" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Light_Dragon_e3/r3_Light_Dragon_e3_Avatar.png</v>
+        <v>Heroes/r3_Light_Dragon_e2/r3_Light_Dragon_e2_Avatar.png</v>
       </c>
       <c r="H43" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Light_Dragon_e3/r3_Light_Dragon_e3_BurnMap.png</v>
+        <v>Heroes/r3_Light_Dragon_e2/r3_Light_Dragon_e2_BurnMap.png</v>
       </c>
       <c r="I43" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Light_Dragon_e3/r3_Light_Dragon_e3_SkeletonData.asset</v>
+        <v>Heroes/r3_Light_Dragon_e2/r3_Light_Dragon_e2_SkeletonData.asset</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="8" t="s">
@@ -10772,7 +10744,7 @@
       </c>
       <c r="Y43" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_light_dragon_e3</v>
+        <v>hero-bundle-r3_light_dragon_e2</v>
       </c>
       <c r="AA43" t="str">
         <f t="shared" si="7"/>
@@ -10785,11 +10757,11 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Light_Dragon_e4</v>
+        <v>r3_Light_Dragon_e3</v>
       </c>
       <c r="C44" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10803,23 +10775,23 @@
       </c>
       <c r="F44" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_light_dragon_e4</v>
+        <v>hero-bundle-r3_light_dragon_e3</v>
       </c>
       <c r="G44" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Light_Dragon_e4/r3_Light_Dragon_e4_Avatar.png</v>
+        <v>Heroes/r3_Light_Dragon_e3/r3_Light_Dragon_e3_Avatar.png</v>
       </c>
       <c r="H44" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Light_Dragon_e4/r3_Light_Dragon_e4_BurnMap.png</v>
+        <v>Heroes/r3_Light_Dragon_e3/r3_Light_Dragon_e3_BurnMap.png</v>
       </c>
       <c r="I44" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Light_Dragon_e4/r3_Light_Dragon_e4_SkeletonData.asset</v>
+        <v>Heroes/r3_Light_Dragon_e3/r3_Light_Dragon_e3_SkeletonData.asset</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="8" t="s">
@@ -10838,7 +10810,7 @@
       </c>
       <c r="Y44" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_light_dragon_e4</v>
+        <v>hero-bundle-r3_light_dragon_e3</v>
       </c>
       <c r="AA44" t="str">
         <f t="shared" si="7"/>
@@ -10851,41 +10823,41 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Water_Dragon_e1</v>
+        <v>r3_Light_Dragon_e4</v>
       </c>
       <c r="C45" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Water</v>
+        <v>Light</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F45" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_water_dragon_e1</v>
+        <v>hero-bundle-r3_light_dragon_e4</v>
       </c>
       <c r="G45" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Water_Dragon_e1/r3_Water_Dragon_e1_Avatar.png</v>
+        <v>Heroes/r3_Light_Dragon_e4/r3_Light_Dragon_e4_Avatar.png</v>
       </c>
       <c r="H45" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Water_Dragon_e1/r3_Water_Dragon_e1_BurnMap.png</v>
+        <v>Heroes/r3_Light_Dragon_e4/r3_Light_Dragon_e4_BurnMap.png</v>
       </c>
       <c r="I45" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Water_Dragon_e1/r3_Water_Dragon_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Light_Dragon_e4/r3_Light_Dragon_e4_SkeletonData.asset</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="8" t="s">
@@ -10904,7 +10876,7 @@
       </c>
       <c r="Y45" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_water_dragon_e1</v>
+        <v>hero-bundle-r3_light_dragon_e4</v>
       </c>
       <c r="AA45" t="str">
         <f t="shared" si="7"/>
@@ -10917,11 +10889,11 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B46" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Water_Dragon_e2</v>
+        <v>r3_Water_Dragon_e1</v>
       </c>
       <c r="C46" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10931,27 +10903,27 @@
         <v>129</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F46" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_water_dragon_e2</v>
+        <v>hero-bundle-r3_water_dragon_e1</v>
       </c>
       <c r="G46" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Water_Dragon_e2/r3_Water_Dragon_e2_Avatar.png</v>
+        <v>Heroes/r3_Water_Dragon_e1/r3_Water_Dragon_e1_Avatar.png</v>
       </c>
       <c r="H46" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Water_Dragon_e2/r3_Water_Dragon_e2_BurnMap.png</v>
+        <v>Heroes/r3_Water_Dragon_e1/r3_Water_Dragon_e1_BurnMap.png</v>
       </c>
       <c r="I46" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Water_Dragon_e2/r3_Water_Dragon_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Water_Dragon_e1/r3_Water_Dragon_e1_SkeletonData.asset</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="8" t="s">
@@ -10970,7 +10942,7 @@
       </c>
       <c r="Y46" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_water_dragon_e2</v>
+        <v>hero-bundle-r3_water_dragon_e1</v>
       </c>
       <c r="AA46" t="str">
         <f t="shared" si="7"/>
@@ -10983,11 +10955,11 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Water_Dragon_e3</v>
+        <v>r3_Water_Dragon_e2</v>
       </c>
       <c r="C47" s="6" t="str">
         <f t="shared" si="9"/>
@@ -10997,27 +10969,27 @@
         <v>129</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F47" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_water_dragon_e3</v>
+        <v>hero-bundle-r3_water_dragon_e2</v>
       </c>
       <c r="G47" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Water_Dragon_e3/r3_Water_Dragon_e3_Avatar.png</v>
+        <v>Heroes/r3_Water_Dragon_e2/r3_Water_Dragon_e2_Avatar.png</v>
       </c>
       <c r="H47" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Water_Dragon_e3/r3_Water_Dragon_e3_BurnMap.png</v>
+        <v>Heroes/r3_Water_Dragon_e2/r3_Water_Dragon_e2_BurnMap.png</v>
       </c>
       <c r="I47" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Water_Dragon_e3/r3_Water_Dragon_e3_SkeletonData.asset</v>
+        <v>Heroes/r3_Water_Dragon_e2/r3_Water_Dragon_e2_SkeletonData.asset</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="8" t="s">
@@ -11036,7 +11008,7 @@
       </c>
       <c r="Y47" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_water_dragon_e3</v>
+        <v>hero-bundle-r3_water_dragon_e2</v>
       </c>
       <c r="AA47" t="str">
         <f t="shared" si="7"/>
@@ -11049,11 +11021,11 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Water_Dragon_e4</v>
+        <v>r3_Water_Dragon_e3</v>
       </c>
       <c r="C48" s="6" t="str">
         <f t="shared" si="9"/>
@@ -11067,26 +11039,26 @@
       </c>
       <c r="F48" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_water_dragon_e4</v>
+        <v>hero-bundle-r3_water_dragon_e3</v>
       </c>
       <c r="G48" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Water_Dragon_e4/r3_Water_Dragon_e4_Avatar.png</v>
+        <v>Heroes/r3_Water_Dragon_e3/r3_Water_Dragon_e3_Avatar.png</v>
       </c>
       <c r="H48" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Water_Dragon_e4/r3_Water_Dragon_e4_BurnMap.png</v>
+        <v>Heroes/r3_Water_Dragon_e3/r3_Water_Dragon_e3_BurnMap.png</v>
       </c>
       <c r="I48" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Water_Dragon_e4/r3_Water_Dragon_e4_SkeletonData.asset</v>
+        <v>Heroes/r3_Water_Dragon_e3/r3_Water_Dragon_e3_SkeletonData.asset</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L48" s="6"/>
-      <c r="M48" s="40" t="s">
+      <c r="M48" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N48" t="str">
@@ -11102,7 +11074,7 @@
       </c>
       <c r="Y48" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_water_dragon_e4</v>
+        <v>hero-bundle-r3_water_dragon_e3</v>
       </c>
       <c r="AA48" t="str">
         <f t="shared" si="7"/>
@@ -11115,44 +11087,44 @@
     </row>
     <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Dark_Warlock_e1</v>
+        <v>r3_Water_Dragon_e4</v>
       </c>
       <c r="C49" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Dark</v>
+        <v>Water</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="F49" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_dark_warlock_e1</v>
+        <v>hero-bundle-r3_water_dragon_e4</v>
       </c>
       <c r="G49" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Dark_Warlock_e1/r3_Dark_Warlock_e1_Avatar.png</v>
+        <v>Heroes/r3_Water_Dragon_e4/r3_Water_Dragon_e4_Avatar.png</v>
       </c>
       <c r="H49" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Dark_Warlock_e1/r3_Dark_Warlock_e1_BurnMap.png</v>
+        <v>Heroes/r3_Water_Dragon_e4/r3_Water_Dragon_e4_BurnMap.png</v>
       </c>
       <c r="I49" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Dark_Warlock_e1/r3_Dark_Warlock_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Water_Dragon_e4/r3_Water_Dragon_e4_SkeletonData.asset</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L49" s="6"/>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N49" t="str">
@@ -11168,7 +11140,7 @@
       </c>
       <c r="Y49" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_dark_warlock_e1</v>
+        <v>hero-bundle-r3_water_dragon_e4</v>
       </c>
       <c r="AA49" t="str">
         <f t="shared" si="7"/>
@@ -11181,11 +11153,11 @@
     </row>
     <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Dark_Warlock_e2</v>
+        <v>r3_Dark_Warlock_e1</v>
       </c>
       <c r="C50" s="6" t="str">
         <f t="shared" si="9"/>
@@ -11199,23 +11171,23 @@
       </c>
       <c r="F50" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_dark_warlock_e2</v>
+        <v>hero-bundle-r3_dark_warlock_e1</v>
       </c>
       <c r="G50" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Dark_Warlock_e2/r3_Dark_Warlock_e2_Avatar.png</v>
+        <v>Heroes/r3_Dark_Warlock_e1/r3_Dark_Warlock_e1_Avatar.png</v>
       </c>
       <c r="H50" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Dark_Warlock_e2/r3_Dark_Warlock_e2_BurnMap.png</v>
+        <v>Heroes/r3_Dark_Warlock_e1/r3_Dark_Warlock_e1_BurnMap.png</v>
       </c>
       <c r="I50" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Dark_Warlock_e2/r3_Dark_Warlock_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Dark_Warlock_e1/r3_Dark_Warlock_e1_SkeletonData.asset</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L50" s="6"/>
       <c r="M50" s="8" t="s">
@@ -11234,7 +11206,7 @@
       </c>
       <c r="Y50" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_dark_warlock_e2</v>
+        <v>hero-bundle-r3_dark_warlock_e1</v>
       </c>
       <c r="AA50" t="str">
         <f t="shared" si="7"/>
@@ -11247,15 +11219,15 @@
     </row>
     <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B51" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Earth_SandFairy_e1</v>
+        <v>r3_Dark_Warlock_e2</v>
       </c>
       <c r="C51" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Earth</v>
+        <v>Dark</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>129</v>
@@ -11265,23 +11237,23 @@
       </c>
       <c r="F51" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_earth_sandfairy_e1</v>
-      </c>
-      <c r="G51" s="37" t="str">
+        <v>hero-bundle-r3_dark_warlock_e2</v>
+      </c>
+      <c r="G51" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Earth_SandFairy_e1/r2_Earth_SandFairy_e1_Avatar.png</v>
-      </c>
-      <c r="H51" s="37" t="str">
+        <v>Heroes/r3_Dark_Warlock_e2/r3_Dark_Warlock_e2_Avatar.png</v>
+      </c>
+      <c r="H51" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Earth_SandFairy_e1/r2_Earth_SandFairy_e1_BurnMap.png</v>
-      </c>
-      <c r="I51" s="37" t="str">
+        <v>Heroes/r3_Dark_Warlock_e2/r3_Dark_Warlock_e2_BurnMap.png</v>
+      </c>
+      <c r="I51" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Earth_SandFairy_e1/r2_Earth_SandFairy_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Dark_Warlock_e2/r3_Dark_Warlock_e2_SkeletonData.asset</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="8" t="s">
@@ -11300,7 +11272,7 @@
       </c>
       <c r="Y51" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r2_earth_sandfairy_e1</v>
+        <v>hero-bundle-r3_dark_warlock_e2</v>
       </c>
       <c r="AA51" t="str">
         <f t="shared" si="7"/>
@@ -11313,11 +11285,11 @@
     </row>
     <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r2_Earth_SandFairy_e2</v>
+        <v>r2_Earth_SandFairy_e1</v>
       </c>
       <c r="C52" s="6" t="str">
         <f t="shared" si="9"/>
@@ -11331,23 +11303,23 @@
       </c>
       <c r="F52" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r2_earth_sandfairy_e2</v>
+        <v>hero-bundle-r2_earth_sandfairy_e1</v>
       </c>
       <c r="G52" s="37" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r2_Earth_SandFairy_e2/r2_Earth_SandFairy_e2_Avatar.png</v>
+        <v>Heroes/r2_Earth_SandFairy_e1/r2_Earth_SandFairy_e1_Avatar.png</v>
       </c>
       <c r="H52" s="37" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r2_Earth_SandFairy_e2/r2_Earth_SandFairy_e2_BurnMap.png</v>
+        <v>Heroes/r2_Earth_SandFairy_e1/r2_Earth_SandFairy_e1_BurnMap.png</v>
       </c>
       <c r="I52" s="37" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r2_Earth_SandFairy_e2/r2_Earth_SandFairy_e2_SkeletonData.asset</v>
+        <v>Heroes/r2_Earth_SandFairy_e1/r2_Earth_SandFairy_e1_SkeletonData.asset</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="8" t="s">
@@ -11366,7 +11338,7 @@
       </c>
       <c r="Y52" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r2_earth_sandfairy_e2</v>
+        <v>hero-bundle-r2_earth_sandfairy_e1</v>
       </c>
       <c r="AA52" t="str">
         <f t="shared" si="7"/>
@@ -11379,15 +11351,15 @@
     </row>
     <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B53" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Fire_ExplosiveMage_e1</v>
+        <v>r2_Earth_SandFairy_e2</v>
       </c>
       <c r="C53" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Fire</v>
+        <v>Earth</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>129</v>
@@ -11397,26 +11369,26 @@
       </c>
       <c r="F53" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_fire_explosivemage_e1</v>
-      </c>
-      <c r="G53" s="36" t="str">
+        <v>hero-bundle-r2_earth_sandfairy_e2</v>
+      </c>
+      <c r="G53" s="37" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Fire_ExplosiveMage_e1/r3_Fire_ExplosiveMage_e1_Avatar.png</v>
-      </c>
-      <c r="H53" s="36" t="str">
+        <v>Heroes/r2_Earth_SandFairy_e2/r2_Earth_SandFairy_e2_Avatar.png</v>
+      </c>
+      <c r="H53" s="37" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Fire_ExplosiveMage_e1/r3_Fire_ExplosiveMage_e1_BurnMap.png</v>
-      </c>
-      <c r="I53" s="36" t="str">
+        <v>Heroes/r2_Earth_SandFairy_e2/r2_Earth_SandFairy_e2_BurnMap.png</v>
+      </c>
+      <c r="I53" s="37" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Fire_ExplosiveMage_e1/r3_Fire_ExplosiveMage_e1_SkeletonData.asset</v>
+        <v>Heroes/r2_Earth_SandFairy_e2/r2_Earth_SandFairy_e2_SkeletonData.asset</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L53" s="6"/>
-      <c r="M53" s="40" t="s">
+      <c r="M53" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N53" t="str">
@@ -11432,7 +11404,7 @@
       </c>
       <c r="Y53" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_fire_explosivemage_e1</v>
+        <v>hero-bundle-r2_earth_sandfairy_e2</v>
       </c>
       <c r="AA53" t="str">
         <f t="shared" si="7"/>
@@ -11445,11 +11417,11 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Fire_ExplosiveMage_e2</v>
+        <v>r3_Fire_ExplosiveMage_e1</v>
       </c>
       <c r="C54" s="6" t="str">
         <f t="shared" si="9"/>
@@ -11463,23 +11435,23 @@
       </c>
       <c r="F54" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_fire_explosivemage_e2</v>
+        <v>hero-bundle-r3_fire_explosivemage_e1</v>
       </c>
       <c r="G54" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Fire_ExplosiveMage_e2/r3_Fire_ExplosiveMage_e2_Avatar.png</v>
+        <v>Heroes/r3_Fire_ExplosiveMage_e1/r3_Fire_ExplosiveMage_e1_Avatar.png</v>
       </c>
       <c r="H54" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Fire_ExplosiveMage_e2/r3_Fire_ExplosiveMage_e2_BurnMap.png</v>
+        <v>Heroes/r3_Fire_ExplosiveMage_e1/r3_Fire_ExplosiveMage_e1_BurnMap.png</v>
       </c>
       <c r="I54" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Fire_ExplosiveMage_e2/r3_Fire_ExplosiveMage_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Fire_ExplosiveMage_e1/r3_Fire_ExplosiveMage_e1_SkeletonData.asset</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L54" s="6"/>
       <c r="M54" s="40" t="s">
@@ -11498,7 +11470,7 @@
       </c>
       <c r="Y54" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_fire_explosivemage_e2</v>
+        <v>hero-bundle-r3_fire_explosivemage_e1</v>
       </c>
       <c r="AA54" t="str">
         <f t="shared" si="7"/>
@@ -11511,15 +11483,15 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Light_Chemist_e1</v>
+        <v>r3_Fire_ExplosiveMage_e2</v>
       </c>
       <c r="C55" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Light</v>
+        <v>Fire</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>129</v>
@@ -11529,34 +11501,34 @@
       </c>
       <c r="F55" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_light_chemist_e1</v>
+        <v>hero-bundle-r3_fire_explosivemage_e2</v>
       </c>
       <c r="G55" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Light_Chemist_e1/r3_Light_Chemist_e1_Avatar.png</v>
+        <v>Heroes/r3_Fire_ExplosiveMage_e2/r3_Fire_ExplosiveMage_e2_Avatar.png</v>
       </c>
       <c r="H55" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Light_Chemist_e1/r3_Light_Chemist_e1_BurnMap.png</v>
+        <v>Heroes/r3_Fire_ExplosiveMage_e2/r3_Fire_ExplosiveMage_e2_BurnMap.png</v>
       </c>
       <c r="I55" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Light_Chemist_e1/r3_Light_Chemist_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Fire_ExplosiveMage_e2/r3_Fire_ExplosiveMage_e2_SkeletonData.asset</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L55" s="6"/>
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="40" t="s">
         <v>35</v>
       </c>
       <c r="N55" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O55" s="27"/>
-      <c r="P55" s="21"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="X55" t="str">
         <f t="shared" si="15"/>
@@ -11564,7 +11536,7 @@
       </c>
       <c r="Y55" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_light_chemist_e1</v>
+        <v>hero-bundle-r3_fire_explosivemage_e2</v>
       </c>
       <c r="AA55" t="str">
         <f t="shared" si="7"/>
@@ -11577,11 +11549,11 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B56" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Light_Chemist_e2</v>
+        <v>r3_Light_Chemist_e1</v>
       </c>
       <c r="C56" s="6" t="str">
         <f t="shared" si="9"/>
@@ -11595,23 +11567,23 @@
       </c>
       <c r="F56" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_light_chemist_e2</v>
+        <v>hero-bundle-r3_light_chemist_e1</v>
       </c>
       <c r="G56" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Light_Chemist_e2/r3_Light_Chemist_e2_Avatar.png</v>
+        <v>Heroes/r3_Light_Chemist_e1/r3_Light_Chemist_e1_Avatar.png</v>
       </c>
       <c r="H56" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Light_Chemist_e2/r3_Light_Chemist_e2_BurnMap.png</v>
+        <v>Heroes/r3_Light_Chemist_e1/r3_Light_Chemist_e1_BurnMap.png</v>
       </c>
       <c r="I56" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Light_Chemist_e2/r3_Light_Chemist_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Light_Chemist_e1/r3_Light_Chemist_e1_SkeletonData.asset</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L56" s="6"/>
       <c r="M56" s="8" t="s">
@@ -11621,8 +11593,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="21"/>
       <c r="Q56" s="15"/>
       <c r="X56" t="str">
         <f t="shared" si="15"/>
@@ -11630,7 +11602,7 @@
       </c>
       <c r="Y56" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_light_chemist_e2</v>
+        <v>hero-bundle-r3_light_chemist_e1</v>
       </c>
       <c r="AA56" t="str">
         <f t="shared" si="7"/>
@@ -11643,15 +11615,15 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Water_WindWarrior_e1</v>
+        <v>r3_Light_Chemist_e2</v>
       </c>
       <c r="C57" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Water</v>
+        <v>Light</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>129</v>
@@ -11661,23 +11633,23 @@
       </c>
       <c r="F57" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_water_windwarrior_e1</v>
+        <v>hero-bundle-r3_light_chemist_e2</v>
       </c>
       <c r="G57" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Water_WindWarrior_e1/r3_Water_WindWarrior_e1_Avatar.png</v>
+        <v>Heroes/r3_Light_Chemist_e2/r3_Light_Chemist_e2_Avatar.png</v>
       </c>
       <c r="H57" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Water_WindWarrior_e1/r3_Water_WindWarrior_e1_BurnMap.png</v>
+        <v>Heroes/r3_Light_Chemist_e2/r3_Light_Chemist_e2_BurnMap.png</v>
       </c>
       <c r="I57" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Water_WindWarrior_e1/r3_Water_WindWarrior_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Light_Chemist_e2/r3_Light_Chemist_e2_SkeletonData.asset</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L57" s="6"/>
       <c r="M57" s="8" t="s">
@@ -11696,7 +11668,7 @@
       </c>
       <c r="Y57" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_water_windwarrior_e1</v>
+        <v>hero-bundle-r3_light_chemist_e2</v>
       </c>
       <c r="AA57" t="str">
         <f t="shared" si="7"/>
@@ -11709,11 +11681,11 @@
     </row>
     <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Water_WindWarrior_e2</v>
+        <v>r3_Water_WindWarrior_e1</v>
       </c>
       <c r="C58" s="6" t="str">
         <f t="shared" si="9"/>
@@ -11727,23 +11699,23 @@
       </c>
       <c r="F58" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_water_windwarrior_e2</v>
-      </c>
-      <c r="G58" s="37" t="str">
+        <v>hero-bundle-r3_water_windwarrior_e1</v>
+      </c>
+      <c r="G58" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Water_WindWarrior_e2/r3_Water_WindWarrior_e2_Avatar.png</v>
-      </c>
-      <c r="H58" s="37" t="str">
+        <v>Heroes/r3_Water_WindWarrior_e1/r3_Water_WindWarrior_e1_Avatar.png</v>
+      </c>
+      <c r="H58" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Water_WindWarrior_e2/r3_Water_WindWarrior_e2_BurnMap.png</v>
-      </c>
-      <c r="I58" s="37" t="str">
+        <v>Heroes/r3_Water_WindWarrior_e1/r3_Water_WindWarrior_e1_BurnMap.png</v>
+      </c>
+      <c r="I58" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Water_WindWarrior_e2/r3_Water_WindWarrior_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Water_WindWarrior_e1/r3_Water_WindWarrior_e1_SkeletonData.asset</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="10">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L58" s="6"/>
       <c r="M58" s="8" t="s">
@@ -11762,7 +11734,7 @@
       </c>
       <c r="Y58" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_water_windwarrior_e2</v>
+        <v>hero-bundle-r3_water_windwarrior_e1</v>
       </c>
       <c r="AA58" t="str">
         <f t="shared" si="7"/>
@@ -11775,41 +11747,41 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Fire_Orc_e1</v>
+        <v>r3_Water_WindWarrior_e2</v>
       </c>
       <c r="C59" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Fire</v>
+        <v>Water</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F59" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_fire_orc_e1</v>
-      </c>
-      <c r="G59" s="36" t="str">
+        <v>hero-bundle-r3_water_windwarrior_e2</v>
+      </c>
+      <c r="G59" s="37" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Fire_Orc_e1/r3_Fire_Orc_e1_Avatar.png</v>
-      </c>
-      <c r="H59" s="36" t="str">
+        <v>Heroes/r3_Water_WindWarrior_e2/r3_Water_WindWarrior_e2_Avatar.png</v>
+      </c>
+      <c r="H59" s="37" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Fire_Orc_e1/r3_Fire_Orc_e1_BurnMap.png</v>
-      </c>
-      <c r="I59" s="36" t="str">
+        <v>Heroes/r3_Water_WindWarrior_e2/r3_Water_WindWarrior_e2_BurnMap.png</v>
+      </c>
+      <c r="I59" s="37" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Fire_Orc_e1/r3_Fire_Orc_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Water_WindWarrior_e2/r3_Water_WindWarrior_e2_SkeletonData.asset</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="10">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L59" s="6"/>
       <c r="M59" s="8" t="s">
@@ -11828,7 +11800,7 @@
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_fire_orc_e1</v>
+        <v>hero-bundle-r3_water_windwarrior_e2</v>
       </c>
       <c r="AA59" t="str">
         <f t="shared" si="7"/>
@@ -11841,11 +11813,11 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r3_Fire_Orc_e2</v>
+        <v>r3_Fire_Orc_e1</v>
       </c>
       <c r="C60" s="6" t="str">
         <f t="shared" si="9"/>
@@ -11859,23 +11831,23 @@
       </c>
       <c r="F60" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r3_fire_orc_e2</v>
+        <v>hero-bundle-r3_fire_orc_e1</v>
       </c>
       <c r="G60" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r3_Fire_Orc_e2/r3_Fire_Orc_e2_Avatar.png</v>
+        <v>Heroes/r3_Fire_Orc_e1/r3_Fire_Orc_e1_Avatar.png</v>
       </c>
       <c r="H60" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r3_Fire_Orc_e2/r3_Fire_Orc_e2_BurnMap.png</v>
+        <v>Heroes/r3_Fire_Orc_e1/r3_Fire_Orc_e1_BurnMap.png</v>
       </c>
       <c r="I60" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r3_Fire_Orc_e2/r3_Fire_Orc_e2_SkeletonData.asset</v>
+        <v>Heroes/r3_Fire_Orc_e1/r3_Fire_Orc_e1_SkeletonData.asset</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="10">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L60" s="6"/>
       <c r="M60" s="8" t="s">
@@ -11894,7 +11866,7 @@
       </c>
       <c r="Y60" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r3_fire_orc_e2</v>
+        <v>hero-bundle-r3_fire_orc_e1</v>
       </c>
       <c r="AA60" t="str">
         <f t="shared" si="7"/>
@@ -11907,41 +11879,41 @@
     </row>
     <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B61" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r4_Earth_Jaguar_e1</v>
+        <v>r3_Fire_Orc_e2</v>
       </c>
       <c r="C61" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Earth</v>
+        <v>Fire</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F61" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r4_earth_jaguar_e1</v>
+        <v>hero-bundle-r3_fire_orc_e2</v>
       </c>
       <c r="G61" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r4_Earth_Jaguar_e1/r4_Earth_Jaguar_e1_Avatar.png</v>
+        <v>Heroes/r3_Fire_Orc_e2/r3_Fire_Orc_e2_Avatar.png</v>
       </c>
       <c r="H61" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r4_Earth_Jaguar_e1/r4_Earth_Jaguar_e1_BurnMap.png</v>
+        <v>Heroes/r3_Fire_Orc_e2/r3_Fire_Orc_e2_BurnMap.png</v>
       </c>
       <c r="I61" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r4_Earth_Jaguar_e1/r4_Earth_Jaguar_e1_SkeletonData.asset</v>
+        <v>Heroes/r3_Fire_Orc_e2/r3_Fire_Orc_e2_SkeletonData.asset</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="10">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="8" t="s">
@@ -11960,7 +11932,7 @@
       </c>
       <c r="Y61" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r4_earth_jaguar_e1</v>
+        <v>hero-bundle-r3_fire_orc_e2</v>
       </c>
       <c r="AA61" t="str">
         <f t="shared" si="7"/>
@@ -11973,41 +11945,41 @@
     </row>
     <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r4_Fire_Drake_e1</v>
+        <v>r4_Earth_Jaguar_e1</v>
       </c>
       <c r="C62" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Fire</v>
+        <v>Earth</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F62" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r4_fire_drake_e1</v>
+        <v>hero-bundle-r4_earth_jaguar_e1</v>
       </c>
       <c r="G62" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r4_Fire_Drake_e1/r4_Fire_Drake_e1_Avatar.png</v>
+        <v>Heroes/r4_Earth_Jaguar_e1/r4_Earth_Jaguar_e1_Avatar.png</v>
       </c>
       <c r="H62" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r4_Fire_Drake_e1/r4_Fire_Drake_e1_BurnMap.png</v>
+        <v>Heroes/r4_Earth_Jaguar_e1/r4_Earth_Jaguar_e1_BurnMap.png</v>
       </c>
       <c r="I62" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r4_Fire_Drake_e1/r4_Fire_Drake_e1_SkeletonData.asset</v>
+        <v>Heroes/r4_Earth_Jaguar_e1/r4_Earth_Jaguar_e1_SkeletonData.asset</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L62" s="6"/>
       <c r="M62" s="8" t="s">
@@ -12026,7 +11998,7 @@
       </c>
       <c r="Y62" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r4_fire_drake_e1</v>
+        <v>hero-bundle-r4_earth_jaguar_e1</v>
       </c>
       <c r="AA62" t="str">
         <f t="shared" si="7"/>
@@ -12039,11 +12011,11 @@
     </row>
     <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r4_Fire_Drake_e2</v>
+        <v>r4_Fire_Drake_e1</v>
       </c>
       <c r="C63" s="6" t="str">
         <f t="shared" si="9"/>
@@ -12053,27 +12025,27 @@
         <v>129</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F63" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r4_fire_drake_e2</v>
+        <v>hero-bundle-r4_fire_drake_e1</v>
       </c>
       <c r="G63" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r4_Fire_Drake_e2/r4_Fire_Drake_e2_Avatar.png</v>
+        <v>Heroes/r4_Fire_Drake_e1/r4_Fire_Drake_e1_Avatar.png</v>
       </c>
       <c r="H63" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r4_Fire_Drake_e2/r4_Fire_Drake_e2_BurnMap.png</v>
+        <v>Heroes/r4_Fire_Drake_e1/r4_Fire_Drake_e1_BurnMap.png</v>
       </c>
       <c r="I63" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r4_Fire_Drake_e2/r4_Fire_Drake_e2_SkeletonData.asset</v>
+        <v>Heroes/r4_Fire_Drake_e1/r4_Fire_Drake_e1_SkeletonData.asset</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L63" s="6"/>
       <c r="M63" s="8" t="s">
@@ -12092,7 +12064,7 @@
       </c>
       <c r="Y63" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r4_fire_drake_e2</v>
+        <v>hero-bundle-r4_fire_drake_e1</v>
       </c>
       <c r="AA63" t="str">
         <f t="shared" si="7"/>
@@ -12105,11 +12077,11 @@
     </row>
     <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B64" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r4_Fire_Golem_e1</v>
+        <v>r4_Fire_Drake_e2</v>
       </c>
       <c r="C64" s="6" t="str">
         <f t="shared" si="9"/>
@@ -12123,23 +12095,23 @@
       </c>
       <c r="F64" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r4_fire_golem_e1</v>
+        <v>hero-bundle-r4_fire_drake_e2</v>
       </c>
       <c r="G64" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r4_Fire_Golem_e1/r4_Fire_Golem_e1_Avatar.png</v>
+        <v>Heroes/r4_Fire_Drake_e2/r4_Fire_Drake_e2_Avatar.png</v>
       </c>
       <c r="H64" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r4_Fire_Golem_e1/r4_Fire_Golem_e1_BurnMap.png</v>
+        <v>Heroes/r4_Fire_Drake_e2/r4_Fire_Drake_e2_BurnMap.png</v>
       </c>
       <c r="I64" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r4_Fire_Golem_e1/r4_Fire_Golem_e1_SkeletonData.asset</v>
+        <v>Heroes/r4_Fire_Drake_e2/r4_Fire_Drake_e2_SkeletonData.asset</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="10">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L64" s="6"/>
       <c r="M64" s="8" t="s">
@@ -12158,7 +12130,7 @@
       </c>
       <c r="Y64" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r4_fire_golem_e1</v>
+        <v>hero-bundle-r4_fire_drake_e2</v>
       </c>
       <c r="AA64" t="str">
         <f t="shared" si="7"/>
@@ -12171,11 +12143,11 @@
     </row>
     <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r4_Fire_Golem_e2</v>
+        <v>r4_Fire_Golem_e1</v>
       </c>
       <c r="C65" s="6" t="str">
         <f t="shared" si="9"/>
@@ -12189,30 +12161,30 @@
       </c>
       <c r="F65" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r4_fire_golem_e2</v>
+        <v>hero-bundle-r4_fire_golem_e1</v>
       </c>
       <c r="G65" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r4_Fire_Golem_e2/r4_Fire_Golem_e2_Avatar.png</v>
+        <v>Heroes/r4_Fire_Golem_e1/r4_Fire_Golem_e1_Avatar.png</v>
       </c>
       <c r="H65" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r4_Fire_Golem_e2/r4_Fire_Golem_e2_BurnMap.png</v>
+        <v>Heroes/r4_Fire_Golem_e1/r4_Fire_Golem_e1_BurnMap.png</v>
       </c>
       <c r="I65" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r4_Fire_Golem_e2/r4_Fire_Golem_e2_SkeletonData.asset</v>
+        <v>Heroes/r4_Fire_Golem_e1/r4_Fire_Golem_e1_SkeletonData.asset</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="10">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" ref="N65:N121" si="17">IF(B65=A65,"","No")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O65" s="15"/>
@@ -12224,7 +12196,7 @@
       </c>
       <c r="Y65" t="str">
         <f t="shared" si="16"/>
-        <v>hero-bundle-r4_fire_golem_e2</v>
+        <v>hero-bundle-r4_fire_golem_e1</v>
       </c>
       <c r="AA65" t="str">
         <f t="shared" si="7"/>
@@ -12237,15 +12209,15 @@
     </row>
     <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r4_Light_Golem_e1</v>
+        <v>r4_Fire_Golem_e2</v>
       </c>
       <c r="C66" s="6" t="str">
         <f t="shared" si="9"/>
-        <v>Light</v>
+        <v>Fire</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>129</v>
@@ -12255,62 +12227,62 @@
       </c>
       <c r="F66" s="36" t="str">
         <f t="shared" si="10"/>
-        <v>hero-bundle-r4_light_golem_e1</v>
+        <v>hero-bundle-r4_fire_golem_e2</v>
       </c>
       <c r="G66" s="36" t="str">
         <f t="shared" si="11"/>
-        <v>Heroes/r4_Light_Golem_e1/r4_Light_Golem_e1_Avatar.png</v>
+        <v>Heroes/r4_Fire_Golem_e2/r4_Fire_Golem_e2_Avatar.png</v>
       </c>
       <c r="H66" s="36" t="str">
         <f t="shared" si="12"/>
-        <v>Heroes/r4_Light_Golem_e1/r4_Light_Golem_e1_BurnMap.png</v>
+        <v>Heroes/r4_Fire_Golem_e2/r4_Fire_Golem_e2_BurnMap.png</v>
       </c>
       <c r="I66" s="36" t="str">
         <f t="shared" si="13"/>
-        <v>Heroes/r4_Light_Golem_e1/r4_Light_Golem_e1_SkeletonData.asset</v>
+        <v>Heroes/r4_Fire_Golem_e2/r4_Fire_Golem_e2_SkeletonData.asset</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L66" s="6"/>
       <c r="M66" s="8" t="s">
         <v>35</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="N66:N122" si="17">IF(B66=A66,"","No")</f>
         <v/>
       </c>
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
       <c r="X66" t="str">
-        <f t="shared" ref="X66:X97" si="18">IFERROR(INDEX(T$5:T$10,MATCH($A66,$S$5:$S$10,0)),D66)</f>
+        <f t="shared" si="15"/>
         <v>hero-card-4</v>
       </c>
       <c r="Y66" t="str">
-        <f t="shared" ref="Y66:Y97" si="19">IFERROR(INDEX(U$5:U$10,MATCH($A66,$S$5:$S$10,0)),F66)</f>
-        <v>hero-bundle-r4_light_golem_e1</v>
+        <f t="shared" si="16"/>
+        <v>hero-bundle-r4_fire_golem_e2</v>
       </c>
       <c r="AA66" t="str">
-        <f t="shared" ref="AA66:AA121" si="20">IF(X66=D66,"","CHG")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AB66" t="str">
-        <f t="shared" ref="AB66:AB121" si="21">IF(Y66=F66,"","CHG")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="12" t="str">
         <f t="shared" si="14"/>
-        <v>r4_Light_Golem_e2</v>
+        <v>r4_Light_Golem_e1</v>
       </c>
       <c r="C67" s="6" t="str">
-        <f t="shared" ref="C67:C81" si="22">RIGHT(LEFT(A67,FIND("_",A67,4)-1),LEN(LEFT(A67,FIND("_",A67,4)-1))-3)</f>
+        <f t="shared" si="9"/>
         <v>Light</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -12320,24 +12292,24 @@
         <v>233</v>
       </c>
       <c r="F67" s="36" t="str">
-        <f t="shared" ref="F67:F81" si="23">IF(M67="Done",LOWER("hero-bundle-"&amp;B67),"hero-bundle-placeholder")</f>
-        <v>hero-bundle-r4_light_golem_e2</v>
+        <f t="shared" si="10"/>
+        <v>hero-bundle-r4_light_golem_e1</v>
       </c>
       <c r="G67" s="36" t="str">
-        <f t="shared" ref="G67:G81" si="24">CONCATENATE("Heroes/",B67, "/", B67,  "_Avatar.png")</f>
-        <v>Heroes/r4_Light_Golem_e2/r4_Light_Golem_e2_Avatar.png</v>
+        <f t="shared" si="11"/>
+        <v>Heroes/r4_Light_Golem_e1/r4_Light_Golem_e1_Avatar.png</v>
       </c>
       <c r="H67" s="36" t="str">
-        <f t="shared" ref="H67:H81" si="25">CONCATENATE("Heroes/",B67, "/", B67,  "_BurnMap.png")</f>
-        <v>Heroes/r4_Light_Golem_e2/r4_Light_Golem_e2_BurnMap.png</v>
+        <f t="shared" si="12"/>
+        <v>Heroes/r4_Light_Golem_e1/r4_Light_Golem_e1_BurnMap.png</v>
       </c>
       <c r="I67" s="36" t="str">
-        <f t="shared" ref="I67:I81" si="26">CONCATENATE("Heroes/",B67, "/", B67,  "_SkeletonData.asset")</f>
-        <v>Heroes/r4_Light_Golem_e2/r4_Light_Golem_e2_SkeletonData.asset</v>
+        <f t="shared" si="13"/>
+        <v>Heroes/r4_Light_Golem_e1/r4_Light_Golem_e1_SkeletonData.asset</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="8" t="s">
@@ -12351,33 +12323,33 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="X67" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="X67:X98" si="18">IFERROR(INDEX(T$6:T$11,MATCH($A67,$S$6:$S$11,0)),D67)</f>
         <v>hero-card-4</v>
       </c>
       <c r="Y67" t="str">
-        <f t="shared" si="19"/>
-        <v>hero-bundle-r4_light_golem_e2</v>
+        <f t="shared" ref="Y67:Y98" si="19">IFERROR(INDEX(U$6:U$11,MATCH($A67,$S$6:$S$11,0)),F67)</f>
+        <v>hero-bundle-r4_light_golem_e1</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AA67:AA122" si="20">IF(X67=D67,"","CHG")</f>
         <v/>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="AB67:AB122" si="21">IF(Y67=F67,"","CHG")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B68" s="12" t="str">
-        <f t="shared" ref="B68:B81" si="27">IF(M68="Static","r1_Dark_Knight_e1",A68)</f>
-        <v>r4_Water_Golem_e1</v>
+        <f t="shared" si="14"/>
+        <v>r4_Light_Golem_e2</v>
       </c>
       <c r="C68" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v>Water</v>
+        <f t="shared" ref="C68:C82" si="22">RIGHT(LEFT(A68,FIND("_",A68,4)-1),LEN(LEFT(A68,FIND("_",A68,4)-1))-3)</f>
+        <v>Light</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>129</v>
@@ -12386,24 +12358,24 @@
         <v>233</v>
       </c>
       <c r="F68" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v>hero-bundle-r4_water_golem_e1</v>
+        <f t="shared" ref="F68:F82" si="23">IF(M68="Done",LOWER("hero-bundle-"&amp;B68),"hero-bundle-placeholder")</f>
+        <v>hero-bundle-r4_light_golem_e2</v>
       </c>
       <c r="G68" s="36" t="str">
-        <f t="shared" si="24"/>
-        <v>Heroes/r4_Water_Golem_e1/r4_Water_Golem_e1_Avatar.png</v>
+        <f t="shared" ref="G68:G82" si="24">CONCATENATE("Heroes/",B68, "/", B68,  "_Avatar.png")</f>
+        <v>Heroes/r4_Light_Golem_e2/r4_Light_Golem_e2_Avatar.png</v>
       </c>
       <c r="H68" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v>Heroes/r4_Water_Golem_e1/r4_Water_Golem_e1_BurnMap.png</v>
+        <f t="shared" ref="H68:H82" si="25">CONCATENATE("Heroes/",B68, "/", B68,  "_BurnMap.png")</f>
+        <v>Heroes/r4_Light_Golem_e2/r4_Light_Golem_e2_BurnMap.png</v>
       </c>
       <c r="I68" s="36" t="str">
-        <f t="shared" si="26"/>
-        <v>Heroes/r4_Water_Golem_e1/r4_Water_Golem_e1_SkeletonData.asset</v>
+        <f t="shared" ref="I68:I82" si="26">CONCATENATE("Heroes/",B68, "/", B68,  "_SkeletonData.asset")</f>
+        <v>Heroes/r4_Light_Golem_e2/r4_Light_Golem_e2_SkeletonData.asset</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="10">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L68" s="6"/>
       <c r="M68" s="8" t="s">
@@ -12422,7 +12394,7 @@
       </c>
       <c r="Y68" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r4_water_golem_e1</v>
+        <v>hero-bundle-r4_light_golem_e2</v>
       </c>
       <c r="AA68" t="str">
         <f t="shared" si="20"/>
@@ -12435,11 +12407,11 @@
     </row>
     <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" s="12" t="str">
-        <f t="shared" si="27"/>
-        <v>r4_Water_Golem_e2</v>
+        <f t="shared" ref="B69:B82" si="27">IF(M69="Static","r1_Dark_Knight_e1",A69)</f>
+        <v>r4_Water_Golem_e1</v>
       </c>
       <c r="C69" s="6" t="str">
         <f t="shared" si="22"/>
@@ -12453,23 +12425,23 @@
       </c>
       <c r="F69" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r4_water_golem_e2</v>
+        <v>hero-bundle-r4_water_golem_e1</v>
       </c>
       <c r="G69" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r4_Water_Golem_e2/r4_Water_Golem_e2_Avatar.png</v>
+        <v>Heroes/r4_Water_Golem_e1/r4_Water_Golem_e1_Avatar.png</v>
       </c>
       <c r="H69" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r4_Water_Golem_e2/r4_Water_Golem_e2_BurnMap.png</v>
+        <v>Heroes/r4_Water_Golem_e1/r4_Water_Golem_e1_BurnMap.png</v>
       </c>
       <c r="I69" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r4_Water_Golem_e2/r4_Water_Golem_e2_SkeletonData.asset</v>
+        <v>Heroes/r4_Water_Golem_e1/r4_Water_Golem_e1_SkeletonData.asset</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="10">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="8" t="s">
@@ -12488,7 +12460,7 @@
       </c>
       <c r="Y69" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r4_water_golem_e2</v>
+        <v>hero-bundle-r4_water_golem_e1</v>
       </c>
       <c r="AA69" t="str">
         <f t="shared" si="20"/>
@@ -12501,41 +12473,41 @@
     </row>
     <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r4_Dark_Missionary_e1</v>
+        <v>r4_Water_Golem_e2</v>
       </c>
       <c r="C70" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Dark</v>
+        <v>Water</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F70" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r4_dark_missionary_e1</v>
-      </c>
-      <c r="G70" s="37" t="str">
+        <v>hero-bundle-r4_water_golem_e2</v>
+      </c>
+      <c r="G70" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r4_Dark_Missionary_e1/r4_Dark_Missionary_e1_Avatar.png</v>
-      </c>
-      <c r="H70" s="37" t="str">
+        <v>Heroes/r4_Water_Golem_e2/r4_Water_Golem_e2_Avatar.png</v>
+      </c>
+      <c r="H70" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r4_Dark_Missionary_e1/r4_Dark_Missionary_e1_BurnMap.png</v>
-      </c>
-      <c r="I70" s="37" t="str">
+        <v>Heroes/r4_Water_Golem_e2/r4_Water_Golem_e2_BurnMap.png</v>
+      </c>
+      <c r="I70" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r4_Dark_Missionary_e1/r4_Dark_Missionary_e1_SkeletonData.asset</v>
+        <v>Heroes/r4_Water_Golem_e2/r4_Water_Golem_e2_SkeletonData.asset</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L70" s="6"/>
       <c r="M70" s="8" t="s">
@@ -12554,7 +12526,7 @@
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r4_dark_missionary_e1</v>
+        <v>hero-bundle-r4_water_golem_e2</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="20"/>
@@ -12567,15 +12539,15 @@
     </row>
     <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r4_Earth_Witch_e1</v>
+        <v>r4_Dark_Missionary_e1</v>
       </c>
       <c r="C71" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Earth</v>
+        <v>Dark</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>129</v>
@@ -12585,23 +12557,23 @@
       </c>
       <c r="F71" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r4_earth_witch_e1</v>
-      </c>
-      <c r="G71" s="36" t="str">
+        <v>hero-bundle-r4_dark_missionary_e1</v>
+      </c>
+      <c r="G71" s="37" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r4_Earth_Witch_e1/r4_Earth_Witch_e1_Avatar.png</v>
-      </c>
-      <c r="H71" s="36" t="str">
+        <v>Heroes/r4_Dark_Missionary_e1/r4_Dark_Missionary_e1_Avatar.png</v>
+      </c>
+      <c r="H71" s="37" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r4_Earth_Witch_e1/r4_Earth_Witch_e1_BurnMap.png</v>
-      </c>
-      <c r="I71" s="36" t="str">
+        <v>Heroes/r4_Dark_Missionary_e1/r4_Dark_Missionary_e1_BurnMap.png</v>
+      </c>
+      <c r="I71" s="37" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r4_Earth_Witch_e1/r4_Earth_Witch_e1_SkeletonData.asset</v>
+        <v>Heroes/r4_Dark_Missionary_e1/r4_Dark_Missionary_e1_SkeletonData.asset</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="10">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L71" s="6"/>
       <c r="M71" s="8" t="s">
@@ -12620,7 +12592,7 @@
       </c>
       <c r="Y71" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r4_earth_witch_e1</v>
+        <v>hero-bundle-r4_dark_missionary_e1</v>
       </c>
       <c r="AA71" t="str">
         <f t="shared" si="20"/>
@@ -12633,41 +12605,41 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B72" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r4_Fire_Maiden_e1</v>
+        <v>r4_Earth_Witch_e1</v>
       </c>
       <c r="C72" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Fire</v>
+        <v>Earth</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F72" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r4_fire_maiden_e1</v>
+        <v>hero-bundle-r4_earth_witch_e1</v>
       </c>
       <c r="G72" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r4_Fire_Maiden_e1/r4_Fire_Maiden_e1_Avatar.png</v>
+        <v>Heroes/r4_Earth_Witch_e1/r4_Earth_Witch_e1_Avatar.png</v>
       </c>
       <c r="H72" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r4_Fire_Maiden_e1/r4_Fire_Maiden_e1_BurnMap.png</v>
+        <v>Heroes/r4_Earth_Witch_e1/r4_Earth_Witch_e1_BurnMap.png</v>
       </c>
       <c r="I72" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r4_Fire_Maiden_e1/r4_Fire_Maiden_e1_SkeletonData.asset</v>
+        <v>Heroes/r4_Earth_Witch_e1/r4_Earth_Witch_e1_SkeletonData.asset</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="10">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L72" s="6"/>
       <c r="M72" s="8" t="s">
@@ -12686,7 +12658,7 @@
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r4_fire_maiden_e1</v>
+        <v>hero-bundle-r4_earth_witch_e1</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="20"/>
@@ -12699,41 +12671,41 @@
     </row>
     <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r4_Light_Sunspot_e1</v>
+        <v>r4_Fire_Maiden_e1</v>
       </c>
       <c r="C73" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Light</v>
+        <v>Fire</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F73" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r4_light_sunspot_e1</v>
+        <v>hero-bundle-r4_fire_maiden_e1</v>
       </c>
       <c r="G73" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r4_Light_Sunspot_e1/r4_Light_Sunspot_e1_Avatar.png</v>
+        <v>Heroes/r4_Fire_Maiden_e1/r4_Fire_Maiden_e1_Avatar.png</v>
       </c>
       <c r="H73" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r4_Light_Sunspot_e1/r4_Light_Sunspot_e1_BurnMap.png</v>
+        <v>Heroes/r4_Fire_Maiden_e1/r4_Fire_Maiden_e1_BurnMap.png</v>
       </c>
       <c r="I73" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r4_Light_Sunspot_e1/r4_Light_Sunspot_e1_SkeletonData.asset</v>
+        <v>Heroes/r4_Fire_Maiden_e1/r4_Fire_Maiden_e1_SkeletonData.asset</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L73" s="6"/>
       <c r="M73" s="8" t="s">
@@ -12752,7 +12724,7 @@
       </c>
       <c r="Y73" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r4_light_sunspot_e1</v>
+        <v>hero-bundle-r4_fire_maiden_e1</v>
       </c>
       <c r="AA73" t="str">
         <f t="shared" si="20"/>
@@ -12765,41 +12737,41 @@
     </row>
     <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r4_Water_CrystalPriest_e1</v>
+        <v>r4_Light_Sunspot_e1</v>
       </c>
       <c r="C74" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Water</v>
+        <v>Light</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F74" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r4_water_crystalpriest_e1</v>
-      </c>
-      <c r="G74" s="37" t="str">
+        <v>hero-bundle-r4_light_sunspot_e1</v>
+      </c>
+      <c r="G74" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r4_Water_CrystalPriest_e1/r4_Water_CrystalPriest_e1_Avatar.png</v>
-      </c>
-      <c r="H74" s="37" t="str">
+        <v>Heroes/r4_Light_Sunspot_e1/r4_Light_Sunspot_e1_Avatar.png</v>
+      </c>
+      <c r="H74" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r4_Water_CrystalPriest_e1/r4_Water_CrystalPriest_e1_BurnMap.png</v>
-      </c>
-      <c r="I74" s="37" t="str">
+        <v>Heroes/r4_Light_Sunspot_e1/r4_Light_Sunspot_e1_BurnMap.png</v>
+      </c>
+      <c r="I74" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r4_Water_CrystalPriest_e1/r4_Water_CrystalPriest_e1_SkeletonData.asset</v>
+        <v>Heroes/r4_Light_Sunspot_e1/r4_Light_Sunspot_e1_SkeletonData.asset</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L74" s="6"/>
       <c r="M74" s="8" t="s">
@@ -12818,7 +12790,7 @@
       </c>
       <c r="Y74" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r4_water_crystalpriest_e1</v>
+        <v>hero-bundle-r4_light_sunspot_e1</v>
       </c>
       <c r="AA74" t="str">
         <f t="shared" si="20"/>
@@ -12831,41 +12803,41 @@
     </row>
     <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B75" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r5_Dark_Cyclops_e1</v>
+        <v>r4_Water_CrystalPriest_e1</v>
       </c>
       <c r="C75" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Dark</v>
+        <v>Water</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F75" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r5_dark_cyclops_e1</v>
-      </c>
-      <c r="G75" s="36" t="str">
+        <v>hero-bundle-r4_water_crystalpriest_e1</v>
+      </c>
+      <c r="G75" s="37" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r5_Dark_Cyclops_e1/r5_Dark_Cyclops_e1_Avatar.png</v>
-      </c>
-      <c r="H75" s="36" t="str">
+        <v>Heroes/r4_Water_CrystalPriest_e1/r4_Water_CrystalPriest_e1_Avatar.png</v>
+      </c>
+      <c r="H75" s="37" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r5_Dark_Cyclops_e1/r5_Dark_Cyclops_e1_BurnMap.png</v>
-      </c>
-      <c r="I75" s="36" t="str">
+        <v>Heroes/r4_Water_CrystalPriest_e1/r4_Water_CrystalPriest_e1_BurnMap.png</v>
+      </c>
+      <c r="I75" s="37" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r5_Dark_Cyclops_e1/r5_Dark_Cyclops_e1_SkeletonData.asset</v>
+        <v>Heroes/r4_Water_CrystalPriest_e1/r4_Water_CrystalPriest_e1_SkeletonData.asset</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L75" s="6"/>
       <c r="M75" s="8" t="s">
@@ -12884,7 +12856,7 @@
       </c>
       <c r="Y75" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r5_dark_cyclops_e1</v>
+        <v>hero-bundle-r4_water_crystalpriest_e1</v>
       </c>
       <c r="AA75" t="str">
         <f t="shared" si="20"/>
@@ -12897,15 +12869,15 @@
     </row>
     <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r5_Earth_Cyclops_e1</v>
+        <v>r5_Dark_Cyclops_e1</v>
       </c>
       <c r="C76" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Earth</v>
+        <v>Dark</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>129</v>
@@ -12915,23 +12887,23 @@
       </c>
       <c r="F76" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r5_earth_cyclops_e1</v>
+        <v>hero-bundle-r5_dark_cyclops_e1</v>
       </c>
       <c r="G76" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r5_Earth_Cyclops_e1/r5_Earth_Cyclops_e1_Avatar.png</v>
+        <v>Heroes/r5_Dark_Cyclops_e1/r5_Dark_Cyclops_e1_Avatar.png</v>
       </c>
       <c r="H76" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r5_Earth_Cyclops_e1/r5_Earth_Cyclops_e1_BurnMap.png</v>
+        <v>Heroes/r5_Dark_Cyclops_e1/r5_Dark_Cyclops_e1_BurnMap.png</v>
       </c>
       <c r="I76" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r5_Earth_Cyclops_e1/r5_Earth_Cyclops_e1_SkeletonData.asset</v>
+        <v>Heroes/r5_Dark_Cyclops_e1/r5_Dark_Cyclops_e1_SkeletonData.asset</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L76" s="6"/>
       <c r="M76" s="8" t="s">
@@ -12950,7 +12922,7 @@
       </c>
       <c r="Y76" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r5_earth_cyclops_e1</v>
+        <v>hero-bundle-r5_dark_cyclops_e1</v>
       </c>
       <c r="AA76" t="str">
         <f t="shared" si="20"/>
@@ -12963,15 +12935,15 @@
     </row>
     <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r5_Fire_Cyclops_e1</v>
+        <v>r5_Earth_Cyclops_e1</v>
       </c>
       <c r="C77" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Fire</v>
+        <v>Earth</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>129</v>
@@ -12981,23 +12953,23 @@
       </c>
       <c r="F77" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r5_fire_cyclops_e1</v>
+        <v>hero-bundle-r5_earth_cyclops_e1</v>
       </c>
       <c r="G77" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r5_Fire_Cyclops_e1/r5_Fire_Cyclops_e1_Avatar.png</v>
+        <v>Heroes/r5_Earth_Cyclops_e1/r5_Earth_Cyclops_e1_Avatar.png</v>
       </c>
       <c r="H77" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r5_Fire_Cyclops_e1/r5_Fire_Cyclops_e1_BurnMap.png</v>
+        <v>Heroes/r5_Earth_Cyclops_e1/r5_Earth_Cyclops_e1_BurnMap.png</v>
       </c>
       <c r="I77" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r5_Fire_Cyclops_e1/r5_Fire_Cyclops_e1_SkeletonData.asset</v>
+        <v>Heroes/r5_Earth_Cyclops_e1/r5_Earth_Cyclops_e1_SkeletonData.asset</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="10">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L77" s="6"/>
       <c r="M77" s="8" t="s">
@@ -13016,7 +12988,7 @@
       </c>
       <c r="Y77" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r5_fire_cyclops_e1</v>
+        <v>hero-bundle-r5_earth_cyclops_e1</v>
       </c>
       <c r="AA77" t="str">
         <f t="shared" si="20"/>
@@ -13029,15 +13001,15 @@
     </row>
     <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B78" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r5_Light_Cyclops_e1</v>
+        <v>r5_Fire_Cyclops_e1</v>
       </c>
       <c r="C78" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Light</v>
+        <v>Fire</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>129</v>
@@ -13047,23 +13019,23 @@
       </c>
       <c r="F78" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r5_light_cyclops_e1</v>
+        <v>hero-bundle-r5_fire_cyclops_e1</v>
       </c>
       <c r="G78" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r5_Light_Cyclops_e1/r5_Light_Cyclops_e1_Avatar.png</v>
+        <v>Heroes/r5_Fire_Cyclops_e1/r5_Fire_Cyclops_e1_Avatar.png</v>
       </c>
       <c r="H78" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r5_Light_Cyclops_e1/r5_Light_Cyclops_e1_BurnMap.png</v>
+        <v>Heroes/r5_Fire_Cyclops_e1/r5_Fire_Cyclops_e1_BurnMap.png</v>
       </c>
       <c r="I78" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r5_Light_Cyclops_e1/r5_Light_Cyclops_e1_SkeletonData.asset</v>
+        <v>Heroes/r5_Fire_Cyclops_e1/r5_Fire_Cyclops_e1_SkeletonData.asset</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="10">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L78" s="6"/>
       <c r="M78" s="8" t="s">
@@ -13082,7 +13054,7 @@
       </c>
       <c r="Y78" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r5_light_cyclops_e1</v>
+        <v>hero-bundle-r5_fire_cyclops_e1</v>
       </c>
       <c r="AA78" t="str">
         <f t="shared" si="20"/>
@@ -13095,15 +13067,15 @@
     </row>
     <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B79" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r6_Dark_Nightbound_e1</v>
+        <v>r5_Light_Cyclops_e1</v>
       </c>
       <c r="C79" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Dark</v>
+        <v>Light</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>129</v>
@@ -13113,27 +13085,25 @@
       </c>
       <c r="F79" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r6_dark_nightbound_e1</v>
+        <v>hero-bundle-r5_light_cyclops_e1</v>
       </c>
       <c r="G79" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r6_Dark_Nightbound_e1/r6_Dark_Nightbound_e1_Avatar.png</v>
+        <v>Heroes/r5_Light_Cyclops_e1/r5_Light_Cyclops_e1_Avatar.png</v>
       </c>
       <c r="H79" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r6_Dark_Nightbound_e1/r6_Dark_Nightbound_e1_BurnMap.png</v>
+        <v>Heroes/r5_Light_Cyclops_e1/r5_Light_Cyclops_e1_BurnMap.png</v>
       </c>
       <c r="I79" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r6_Dark_Nightbound_e1/r6_Dark_Nightbound_e1_SkeletonData.asset</v>
+        <v>Heroes/r5_Light_Cyclops_e1/r5_Light_Cyclops_e1_SkeletonData.asset</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="10">
-        <v>78</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>230</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="L79" s="6"/>
       <c r="M79" s="8" t="s">
         <v>35</v>
       </c>
@@ -13150,7 +13120,7 @@
       </c>
       <c r="Y79" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r6_dark_nightbound_e1</v>
+        <v>hero-bundle-r5_light_cyclops_e1</v>
       </c>
       <c r="AA79" t="str">
         <f t="shared" si="20"/>
@@ -13163,15 +13133,15 @@
     </row>
     <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B80" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r6_Earth_Shaman_e1</v>
+        <v>r6_Dark_Nightbound_e1</v>
       </c>
       <c r="C80" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Earth</v>
+        <v>Dark</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>129</v>
@@ -13181,26 +13151,26 @@
       </c>
       <c r="F80" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r6_earth_shaman_e1</v>
+        <v>hero-bundle-r6_dark_nightbound_e1</v>
       </c>
       <c r="G80" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r6_Earth_Shaman_e1/r6_Earth_Shaman_e1_Avatar.png</v>
+        <v>Heroes/r6_Dark_Nightbound_e1/r6_Dark_Nightbound_e1_Avatar.png</v>
       </c>
       <c r="H80" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r6_Earth_Shaman_e1/r6_Earth_Shaman_e1_BurnMap.png</v>
+        <v>Heroes/r6_Dark_Nightbound_e1/r6_Dark_Nightbound_e1_BurnMap.png</v>
       </c>
       <c r="I80" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r6_Earth_Shaman_e1/r6_Earth_Shaman_e1_SkeletonData.asset</v>
+        <v>Heroes/r6_Dark_Nightbound_e1/r6_Dark_Nightbound_e1_SkeletonData.asset</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="10">
-        <v>79</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>227</v>
+        <v>78</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="M80" s="8" t="s">
         <v>35</v>
@@ -13218,7 +13188,7 @@
       </c>
       <c r="Y80" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r6_earth_shaman_e1</v>
+        <v>hero-bundle-r6_dark_nightbound_e1</v>
       </c>
       <c r="AA80" t="str">
         <f t="shared" si="20"/>
@@ -13231,15 +13201,15 @@
     </row>
     <row r="81" spans="1:28">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>r6_Fire_Unburnt_e1</v>
+        <v>r6_Earth_Shaman_e1</v>
       </c>
       <c r="C81" s="6" t="str">
         <f t="shared" si="22"/>
-        <v>Fire</v>
+        <v>Earth</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>129</v>
@@ -13249,26 +13219,26 @@
       </c>
       <c r="F81" s="36" t="str">
         <f t="shared" si="23"/>
-        <v>hero-bundle-r6_fire_unburnt_e1</v>
+        <v>hero-bundle-r6_earth_shaman_e1</v>
       </c>
       <c r="G81" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>Heroes/r6_Fire_Unburnt_e1/r6_Fire_Unburnt_e1_Avatar.png</v>
+        <v>Heroes/r6_Earth_Shaman_e1/r6_Earth_Shaman_e1_Avatar.png</v>
       </c>
       <c r="H81" s="36" t="str">
         <f t="shared" si="25"/>
-        <v>Heroes/r6_Fire_Unburnt_e1/r6_Fire_Unburnt_e1_BurnMap.png</v>
+        <v>Heroes/r6_Earth_Shaman_e1/r6_Earth_Shaman_e1_BurnMap.png</v>
       </c>
       <c r="I81" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>Heroes/r6_Fire_Unburnt_e1/r6_Fire_Unburnt_e1_SkeletonData.asset</v>
+        <v>Heroes/r6_Earth_Shaman_e1/r6_Earth_Shaman_e1_SkeletonData.asset</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="10">
-        <v>80</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>231</v>
+        <v>79</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="M81" s="8" t="s">
         <v>35</v>
@@ -13286,7 +13256,7 @@
       </c>
       <c r="Y81" t="str">
         <f t="shared" si="19"/>
-        <v>hero-bundle-r6_fire_unburnt_e1</v>
+        <v>hero-bundle-r6_earth_shaman_e1</v>
       </c>
       <c r="AA81" t="str">
         <f t="shared" si="20"/>
@@ -13298,62 +13268,93 @@
       </c>
     </row>
     <row r="82" spans="1:28">
-      <c r="B82" s="12"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="36"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36"/>
+      <c r="A82" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="12" t="str">
+        <f t="shared" si="27"/>
+        <v>r6_Fire_Unburnt_e1</v>
+      </c>
+      <c r="C82" s="6" t="str">
+        <f t="shared" si="22"/>
+        <v>Fire</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F82" s="36" t="str">
+        <f t="shared" si="23"/>
+        <v>hero-bundle-r6_fire_unburnt_e1</v>
+      </c>
+      <c r="G82" s="36" t="str">
+        <f t="shared" si="24"/>
+        <v>Heroes/r6_Fire_Unburnt_e1/r6_Fire_Unburnt_e1_Avatar.png</v>
+      </c>
+      <c r="H82" s="36" t="str">
+        <f t="shared" si="25"/>
+        <v>Heroes/r6_Fire_Unburnt_e1/r6_Fire_Unburnt_e1_BurnMap.png</v>
+      </c>
+      <c r="I82" s="36" t="str">
+        <f t="shared" si="26"/>
+        <v>Heroes/r6_Fire_Unburnt_e1/r6_Fire_Unburnt_e1_SkeletonData.asset</v>
+      </c>
       <c r="J82" s="6"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="8"/>
+      <c r="K82" s="10">
+        <v>80</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
       <c r="O82" s="15"/>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
+      <c r="X82" t="str">
+        <f t="shared" si="18"/>
+        <v>hero-card-4</v>
+      </c>
+      <c r="Y82" t="str">
+        <f t="shared" si="19"/>
+        <v>hero-bundle-r6_fire_unburnt_e1</v>
+      </c>
+      <c r="AA82" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AB82" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
     </row>
     <row r="83" spans="1:28">
-      <c r="A83" s="14"/>
       <c r="B83" s="12"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="6"/>
       <c r="K83" s="10"/>
       <c r="L83" s="6"/>
-      <c r="N83" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
+      <c r="M83" s="8"/>
       <c r="O83" s="15"/>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
-      <c r="X83">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AA83" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="AB83" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="14"/>
-      <c r="B84" s="6"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="6"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
@@ -13464,7 +13465,7 @@
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="14"/>
-      <c r="B87" s="12"/>
+      <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
@@ -13612,7 +13613,7 @@
     </row>
     <row r="91" spans="1:28">
       <c r="A91" s="14"/>
-      <c r="B91" s="6"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="6"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -13627,8 +13628,8 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
       <c r="X91">
         <f t="shared" si="18"/>
@@ -13664,8 +13665,8 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
       <c r="Q92" s="15"/>
       <c r="X92">
         <f t="shared" si="18"/>
@@ -13686,7 +13687,7 @@
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="14"/>
-      <c r="B93" s="12"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
@@ -13723,7 +13724,7 @@
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="14"/>
-      <c r="B94" s="6"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="6"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
@@ -13797,7 +13798,7 @@
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="14"/>
-      <c r="B96" s="15"/>
+      <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -13834,7 +13835,7 @@
     </row>
     <row r="97" spans="1:28">
       <c r="A97" s="14"/>
-      <c r="B97" s="6"/>
+      <c r="B97" s="15"/>
       <c r="C97" s="6"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
@@ -13886,12 +13887,15 @@
         <f t="shared" si="17"/>
         <v/>
       </c>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
       <c r="X98">
-        <f t="shared" ref="X98:X121" si="28">IFERROR(INDEX(T$5:T$10,MATCH($A98,$S$5:$S$10,0)),D98)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y98">
-        <f t="shared" ref="Y98:Y121" si="29">IFERROR(INDEX(U$5:U$10,MATCH($A98,$S$5:$S$10,0)),F98)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AA98" t="str">
@@ -13921,11 +13925,11 @@
         <v/>
       </c>
       <c r="X99">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="X99:X122" si="28">IFERROR(INDEX(T$6:T$11,MATCH($A99,$S$6:$S$11,0)),D99)</f>
         <v>0</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="Y99:Y122" si="29">IFERROR(INDEX(U$6:U$11,MATCH($A99,$S$6:$S$11,0)),F99)</f>
         <v>0</v>
       </c>
       <c r="AA99" t="str">
@@ -13973,7 +13977,7 @@
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="14"/>
-      <c r="B101" s="15"/>
+      <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
@@ -14007,7 +14011,7 @@
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="14"/>
-      <c r="B102" s="6"/>
+      <c r="B102" s="15"/>
       <c r="C102" s="6"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
@@ -14109,7 +14113,7 @@
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="14"/>
-      <c r="B105" s="12"/>
+      <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
@@ -14143,7 +14147,7 @@
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="14"/>
-      <c r="B106" s="6"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="6"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
@@ -14177,7 +14181,7 @@
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="14"/>
-      <c r="B107" s="12"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
@@ -14279,7 +14283,7 @@
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="14"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="6"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
@@ -14347,7 +14351,7 @@
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="14"/>
-      <c r="B112" s="12"/>
+      <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
@@ -14517,7 +14521,7 @@
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="14"/>
-      <c r="B117" s="6"/>
+      <c r="B117" s="12"/>
       <c r="C117" s="6"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
@@ -14619,7 +14623,7 @@
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="14"/>
-      <c r="B120" s="12"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
@@ -14651,9 +14655,9 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="17" customHeight="1">
+    <row r="121" spans="1:28">
       <c r="A121" s="14"/>
-      <c r="B121" s="6"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="6"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
@@ -14685,7 +14689,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:28" s="23" customFormat="1" ht="17" customHeight="1">
+    <row r="122" spans="1:28" ht="17" customHeight="1">
       <c r="A122" s="14"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -14696,14 +14700,33 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
       <c r="J122" s="6"/>
-      <c r="K122" s="13"/>
+      <c r="K122" s="10"/>
       <c r="L122" s="6"/>
-      <c r="M122"/>
-    </row>
-    <row r="123" spans="1:28" ht="17" customHeight="1">
+      <c r="N122" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="X122">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AA122" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="AB122" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:28" s="23" customFormat="1" ht="17" customHeight="1">
       <c r="A123" s="14"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="12"/>
@@ -14711,28 +14734,9 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
       <c r="J123" s="6"/>
-      <c r="K123" s="10"/>
+      <c r="K123" s="13"/>
       <c r="L123" s="6"/>
-      <c r="N123" t="str">
-        <f t="shared" ref="N123:N126" si="30">IF(B123=A123,"","No")</f>
-        <v/>
-      </c>
-      <c r="X123">
-        <f>IFERROR(INDEX(T$5:T$10,MATCH($A123,$S$5:$S$10,0)),D123)</f>
-        <v>0</v>
-      </c>
-      <c r="Y123">
-        <f>IFERROR(INDEX(U$5:U$10,MATCH($A123,$S$5:$S$10,0)),F123)</f>
-        <v>0</v>
-      </c>
-      <c r="AA123" t="str">
-        <f t="shared" ref="AA123:AA126" si="31">IF(X123=D123,"","CHG")</f>
-        <v/>
-      </c>
-      <c r="AB123" t="str">
-        <f t="shared" ref="AB123:AB126" si="32">IF(Y123=F123,"","CHG")</f>
-        <v/>
-      </c>
+      <c r="M123"/>
     </row>
     <row r="124" spans="1:28" ht="17" customHeight="1">
       <c r="A124" s="14"/>
@@ -14748,23 +14752,23 @@
       <c r="K124" s="10"/>
       <c r="L124" s="6"/>
       <c r="N124" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="N124:N127" si="30">IF(B124=A124,"","No")</f>
         <v/>
       </c>
       <c r="X124">
-        <f>IFERROR(INDEX(T$5:T$10,MATCH($A124,$S$5:$S$10,0)),D124)</f>
+        <f>IFERROR(INDEX(T$6:T$11,MATCH($A124,$S$6:$S$11,0)),D124)</f>
         <v>0</v>
       </c>
       <c r="Y124">
-        <f>IFERROR(INDEX(U$5:U$10,MATCH($A124,$S$5:$S$10,0)),F124)</f>
+        <f>IFERROR(INDEX(U$6:U$11,MATCH($A124,$S$6:$S$11,0)),F124)</f>
         <v>0</v>
       </c>
       <c r="AA124" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AA124:AA127" si="31">IF(X124=D124,"","CHG")</f>
         <v/>
       </c>
       <c r="AB124" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AB124:AB127" si="32">IF(Y124=F124,"","CHG")</f>
         <v/>
       </c>
     </row>
@@ -14786,11 +14790,11 @@
         <v/>
       </c>
       <c r="X125">
-        <f>IFERROR(INDEX(T$5:T$10,MATCH($A125,$S$5:$S$10,0)),D125)</f>
+        <f>IFERROR(INDEX(T$6:T$11,MATCH($A125,$S$6:$S$11,0)),D125)</f>
         <v>0</v>
       </c>
       <c r="Y125">
-        <f>IFERROR(INDEX(U$5:U$10,MATCH($A125,$S$5:$S$10,0)),F125)</f>
+        <f>IFERROR(INDEX(U$6:U$11,MATCH($A125,$S$6:$S$11,0)),F125)</f>
         <v>0</v>
       </c>
       <c r="AA125" t="str">
@@ -14820,11 +14824,11 @@
         <v/>
       </c>
       <c r="X126">
-        <f>IFERROR(INDEX(T$5:T$10,MATCH($A126,$S$5:$S$10,0)),D126)</f>
+        <f>IFERROR(INDEX(T$6:T$11,MATCH($A126,$S$6:$S$11,0)),D126)</f>
         <v>0</v>
       </c>
       <c r="Y126">
-        <f>IFERROR(INDEX(U$5:U$10,MATCH($A126,$S$5:$S$10,0)),F126)</f>
+        <f>IFERROR(INDEX(U$6:U$11,MATCH($A126,$S$6:$S$11,0)),F126)</f>
         <v>0</v>
       </c>
       <c r="AA126" t="str">
@@ -14836,17 +14840,39 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:28">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
+    <row r="127" spans="1:28" ht="17" customHeight="1">
+      <c r="A127" s="14"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
-      <c r="J127" s="15"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="6"/>
+      <c r="N127" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="X127">
+        <f>IFERROR(INDEX(T$6:T$11,MATCH($A127,$S$6:$S$11,0)),D127)</f>
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <f>IFERROR(INDEX(U$6:U$11,MATCH($A127,$S$6:$S$11,0)),F127)</f>
+        <v>0</v>
+      </c>
+      <c r="AA127" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AB127" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
     </row>
     <row r="128" spans="1:28">
       <c r="A128" s="15"/>
@@ -14898,7 +14924,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="15"/>
-      <c r="B132" s="24"/>
+      <c r="B132" s="15"/>
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
@@ -14910,7 +14936,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
+      <c r="B133" s="24"/>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
@@ -15184,8 +15210,20 @@
       <c r="I155" s="12"/>
       <c r="J155" s="15"/>
     </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O121">
+  <autoFilter ref="A1:O122">
     <sortState ref="A2:N122">
       <sortCondition ref="F1:F122"/>
     </sortState>
@@ -15204,64 +15242,64 @@
       <formula>$M1="WIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
+  <conditionalFormatting sqref="V6">
     <cfRule type="expression" dxfId="15" priority="149">
-      <formula>$M3="WIP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V6">
-    <cfRule type="expression" dxfId="14" priority="147">
       <formula>$M4="WIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="expression" dxfId="13" priority="145">
+    <cfRule type="expression" dxfId="14" priority="147">
       <formula>$M5="WIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="expression" dxfId="12" priority="143">
+    <cfRule type="expression" dxfId="13" priority="145">
       <formula>$M6="WIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S7:S9">
-    <cfRule type="expression" dxfId="11" priority="186">
-      <formula>S7&lt;&gt;V6</formula>
+  <conditionalFormatting sqref="V9">
+    <cfRule type="expression" dxfId="12" priority="143">
+      <formula>$M7="WIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="10" priority="190">
-      <formula>S5&lt;&gt;V5</formula>
+  <conditionalFormatting sqref="S8:S10">
+    <cfRule type="expression" dxfId="11" priority="186">
+      <formula>S8&lt;&gt;V7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="expression" dxfId="9" priority="133">
-      <formula>S6&lt;&gt;T6</formula>
+    <cfRule type="expression" dxfId="10" priority="190">
+      <formula>S6&lt;&gt;V6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="8" priority="132">
-      <formula>S10&lt;&gt;T10</formula>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="expression" dxfId="9" priority="133">
+      <formula>S7&lt;&gt;T7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T6:U6">
+  <conditionalFormatting sqref="S11">
+    <cfRule type="expression" dxfId="8" priority="132">
+      <formula>S11&lt;&gt;T11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7:U7">
     <cfRule type="expression" dxfId="7" priority="131">
+      <formula>$M4="WIP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
+    <cfRule type="expression" dxfId="6" priority="130">
+      <formula>$M5="WIP"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6">
+    <cfRule type="expression" dxfId="5" priority="129">
       <formula>$M3="WIP"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7">
-    <cfRule type="expression" dxfId="6" priority="130">
-      <formula>$M4="WIP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5">
-    <cfRule type="expression" dxfId="5" priority="129">
-      <formula>$M2="WIP"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U10">
+  <conditionalFormatting sqref="U9:U11">
     <cfRule type="expression" dxfId="4" priority="127">
-      <formula>$M5="WIP"</formula>
+      <formula>$M6="WIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
@@ -15269,7 +15307,7 @@
       <formula>B1&lt;&gt;A1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M47 M55:M1048576 M49:M52">
+  <conditionalFormatting sqref="M1:M48 M56:M1048576 M50:M53">
     <cfRule type="containsText" dxfId="2" priority="180" operator="containsText" text="Static">
       <formula>NOT(ISERROR(SEARCH("Static",M1)))</formula>
     </cfRule>
@@ -15277,7 +15315,7 @@
       <formula>NOT(ISERROR(SEARCH("Done",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:V4">
+  <conditionalFormatting sqref="T5:V5">
     <cfRule type="expression" dxfId="0" priority="200">
       <formula>#REF!="WIP"</formula>
     </cfRule>
